--- a/PythonResources/Data/Consumption/Sympheny/base_1692_hea.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/base_1692_hea.xlsx
@@ -383,7 +383,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>29.27741576991814</v>
+        <v>29.27741576991813</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -487,7 +487,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>4.335282646501817</v>
+        <v>4.335282646501816</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -575,7 +575,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>31.98782465676986</v>
+        <v>31.98782465676985</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -591,7 +591,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>43.49496591876892</v>
+        <v>43.49496591876891</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -671,7 +671,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>30.02102491631357</v>
+        <v>30.02102491631356</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -791,7 +791,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>38.69768608692136</v>
+        <v>38.69768608692135</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1103,7 +1103,7 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>5.600030713844852</v>
+        <v>5.600030713844851</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1175,7 +1175,7 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>30.64380087346893</v>
+        <v>30.64380087346892</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1311,7 +1311,7 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>46.35328775883302</v>
+        <v>46.35328775883301</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1455,7 +1455,7 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>26.34362813739874</v>
+        <v>26.34362813739873</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1655,7 +1655,7 @@
         <v>164</v>
       </c>
       <c r="B164">
-        <v>23.67720921345009</v>
+        <v>23.67720921345008</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -1687,7 +1687,7 @@
         <v>168</v>
       </c>
       <c r="B168">
-        <v>33.90304389442175</v>
+        <v>33.90304389442174</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -1751,7 +1751,7 @@
         <v>176</v>
       </c>
       <c r="B176">
-        <v>48.41211180542897</v>
+        <v>48.41211180542896</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -1759,7 +1759,7 @@
         <v>177</v>
       </c>
       <c r="B177">
-        <v>42.5064373053642</v>
+        <v>42.50643730536419</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -1975,7 +1975,7 @@
         <v>204</v>
       </c>
       <c r="B204">
-        <v>24.54824564745548</v>
+        <v>24.54824564745547</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2087,7 +2087,7 @@
         <v>218</v>
       </c>
       <c r="B218">
-        <v>50.01960645248645</v>
+        <v>50.01960645248644</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2095,7 +2095,7 @@
         <v>219</v>
       </c>
       <c r="B219">
-        <v>53.71874910246995</v>
+        <v>53.71874910246994</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2119,7 +2119,7 @@
         <v>222</v>
       </c>
       <c r="B222">
-        <v>57.69572309710441</v>
+        <v>57.6957230971044</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2159,7 +2159,7 @@
         <v>227</v>
       </c>
       <c r="B227">
-        <v>14.94788317719486</v>
+        <v>14.94788317719485</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2279,7 +2279,7 @@
         <v>242</v>
       </c>
       <c r="B242">
-        <v>30.34721298234365</v>
+        <v>30.34721298234364</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -2343,7 +2343,7 @@
         <v>250</v>
       </c>
       <c r="B250">
-        <v>19.55689417380637</v>
+        <v>19.55689417380636</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -2375,7 +2375,7 @@
         <v>254</v>
       </c>
       <c r="B254">
-        <v>7.832909650301776</v>
+        <v>7.832909650301775</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -2519,7 +2519,7 @@
         <v>272</v>
       </c>
       <c r="B272">
-        <v>35.90296066224677</v>
+        <v>35.90296066224676</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -2559,7 +2559,7 @@
         <v>277</v>
       </c>
       <c r="B277">
-        <v>5.529986735604791</v>
+        <v>5.52998673560479</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -2583,7 +2583,7 @@
         <v>280</v>
       </c>
       <c r="B280">
-        <v>5.954412213794151</v>
+        <v>5.95441221379415</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -2871,7 +2871,7 @@
         <v>316</v>
       </c>
       <c r="B316">
-        <v>0.5069953126218077</v>
+        <v>0.5069953126218076</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -2959,7 +2959,7 @@
         <v>327</v>
       </c>
       <c r="B327">
-        <v>8.717280816566252</v>
+        <v>8.71728081656625</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -3263,7 +3263,7 @@
         <v>365</v>
       </c>
       <c r="B365">
-        <v>63.49120288663251</v>
+        <v>63.4912028866325</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -3431,7 +3431,7 @@
         <v>386</v>
       </c>
       <c r="B386">
-        <v>54.3734698028394</v>
+        <v>54.37346980283939</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -3447,7 +3447,7 @@
         <v>388</v>
       </c>
       <c r="B388">
-        <v>65.90786667143396</v>
+        <v>65.90786667143395</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -3623,7 +3623,7 @@
         <v>410</v>
       </c>
       <c r="B410">
-        <v>88.95116322825956</v>
+        <v>88.95116322825955</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -3679,7 +3679,7 @@
         <v>417</v>
       </c>
       <c r="B417">
-        <v>77.35961750712603</v>
+        <v>77.35961750712602</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -3743,7 +3743,7 @@
         <v>425</v>
       </c>
       <c r="B425">
-        <v>50.10078713019564</v>
+        <v>50.10078713019563</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -3751,7 +3751,7 @@
         <v>426</v>
       </c>
       <c r="B426">
-        <v>58.12858902120721</v>
+        <v>58.1285890212072</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -3783,7 +3783,7 @@
         <v>430</v>
       </c>
       <c r="B430">
-        <v>67.95907087102472</v>
+        <v>67.95907087102471</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -3823,7 +3823,7 @@
         <v>435</v>
       </c>
       <c r="B435">
-        <v>86.92838691941895</v>
+        <v>86.92838691941894</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -3943,7 +3943,7 @@
         <v>450</v>
       </c>
       <c r="B450">
-        <v>82.62317336148379</v>
+        <v>82.62317336148378</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -3951,7 +3951,7 @@
         <v>451</v>
       </c>
       <c r="B451">
-        <v>76.98009051205959</v>
+        <v>76.98009051205958</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -3967,7 +3967,7 @@
         <v>453</v>
       </c>
       <c r="B453">
-        <v>62.10321844753238</v>
+        <v>62.10321844753237</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -3983,7 +3983,7 @@
         <v>455</v>
       </c>
       <c r="B455">
-        <v>63.43581246032552</v>
+        <v>63.43581246032551</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -4071,7 +4071,7 @@
         <v>466</v>
       </c>
       <c r="B466">
-        <v>57.80738316283438</v>
+        <v>57.80738316283437</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -4119,7 +4119,7 @@
         <v>472</v>
       </c>
       <c r="B472">
-        <v>23.21336568056078</v>
+        <v>23.21336568056077</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -4127,7 +4127,7 @@
         <v>473</v>
       </c>
       <c r="B473">
-        <v>29.81323754990268</v>
+        <v>29.81323754990267</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -4135,7 +4135,7 @@
         <v>474</v>
       </c>
       <c r="B474">
-        <v>50.55944330570065</v>
+        <v>50.55944330570064</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -4143,7 +4143,7 @@
         <v>475</v>
       </c>
       <c r="B475">
-        <v>39.41600320268032</v>
+        <v>39.41600320268031</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -4175,7 +4175,7 @@
         <v>479</v>
       </c>
       <c r="B479">
-        <v>43.17405313143475</v>
+        <v>43.17405313143474</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -4191,7 +4191,7 @@
         <v>481</v>
       </c>
       <c r="B481">
-        <v>62.39072113645916</v>
+        <v>62.39072113645915</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -4199,7 +4199,7 @@
         <v>482</v>
       </c>
       <c r="B482">
-        <v>61.87901910295645</v>
+        <v>61.87901910295644</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -4223,7 +4223,7 @@
         <v>485</v>
       </c>
       <c r="B485">
-        <v>71.71917229704978</v>
+        <v>71.71917229704977</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -4247,7 +4247,7 @@
         <v>488</v>
       </c>
       <c r="B488">
-        <v>79.50694900739771</v>
+        <v>79.50694900739769</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -4287,7 +4287,7 @@
         <v>493</v>
       </c>
       <c r="B493">
-        <v>34.28257088948819</v>
+        <v>34.28257088948818</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -4303,7 +4303,7 @@
         <v>495</v>
       </c>
       <c r="B495">
-        <v>34.3795774032851</v>
+        <v>34.37957740328509</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -4335,7 +4335,7 @@
         <v>499</v>
       </c>
       <c r="B499">
-        <v>66.6642830222189</v>
+        <v>66.66428302221888</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -4503,7 +4503,7 @@
         <v>520</v>
       </c>
       <c r="B520">
-        <v>94.82342762991694</v>
+        <v>94.82342762991692</v>
       </c>
     </row>
     <row r="521" spans="1:2">
@@ -4527,7 +4527,7 @@
         <v>523</v>
       </c>
       <c r="B523">
-        <v>81.74161567719047</v>
+        <v>81.74161567719045</v>
       </c>
     </row>
     <row r="524" spans="1:2">
@@ -4543,7 +4543,7 @@
         <v>525</v>
       </c>
       <c r="B525">
-        <v>67.99160175631613</v>
+        <v>67.99160175631611</v>
       </c>
     </row>
     <row r="526" spans="1:2">
@@ -4655,7 +4655,7 @@
         <v>539</v>
       </c>
       <c r="B539">
-        <v>83.32126857557512</v>
+        <v>83.3212685755751</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -4887,7 +4887,7 @@
         <v>568</v>
       </c>
       <c r="B568">
-        <v>81.69853423450725</v>
+        <v>81.69853423450724</v>
       </c>
     </row>
     <row r="569" spans="1:2">
@@ -5047,7 +5047,7 @@
         <v>588</v>
       </c>
       <c r="B588">
-        <v>38.57811310314753</v>
+        <v>38.57811310314752</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -5063,7 +5063,7 @@
         <v>590</v>
       </c>
       <c r="B590">
-        <v>36.59841823699014</v>
+        <v>36.59841823699013</v>
       </c>
     </row>
     <row r="591" spans="1:2">
@@ -5087,7 +5087,7 @@
         <v>593</v>
       </c>
       <c r="B593">
-        <v>37.5078176699563</v>
+        <v>37.50781766995629</v>
       </c>
     </row>
     <row r="594" spans="1:2">
@@ -5135,7 +5135,7 @@
         <v>599</v>
       </c>
       <c r="B599">
-        <v>40.83007096422131</v>
+        <v>40.8300709642213</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -5143,7 +5143,7 @@
         <v>600</v>
       </c>
       <c r="B600">
-        <v>52.15697353744364</v>
+        <v>52.15697353744363</v>
       </c>
     </row>
     <row r="601" spans="1:2">
@@ -5159,7 +5159,7 @@
         <v>602</v>
       </c>
       <c r="B602">
-        <v>59.30028703377527</v>
+        <v>59.30028703377526</v>
       </c>
     </row>
     <row r="603" spans="1:2">
@@ -5175,7 +5175,7 @@
         <v>604</v>
       </c>
       <c r="B604">
-        <v>60.82953171351017</v>
+        <v>60.82953171351016</v>
       </c>
     </row>
     <row r="605" spans="1:2">
@@ -5263,7 +5263,7 @@
         <v>615</v>
       </c>
       <c r="B615">
-        <v>22.89910560580422</v>
+        <v>22.89910560580421</v>
       </c>
     </row>
     <row r="616" spans="1:2">
@@ -5471,7 +5471,7 @@
         <v>641</v>
       </c>
       <c r="B641">
-        <v>45.02596902473579</v>
+        <v>45.02596902473578</v>
       </c>
     </row>
     <row r="642" spans="1:2">
@@ -5495,7 +5495,7 @@
         <v>644</v>
       </c>
       <c r="B644">
-        <v>54.31983780276437</v>
+        <v>54.31983780276436</v>
       </c>
     </row>
     <row r="645" spans="1:2">
@@ -5527,7 +5527,7 @@
         <v>648</v>
       </c>
       <c r="B648">
-        <v>87.34894385989799</v>
+        <v>87.34894385989797</v>
       </c>
     </row>
     <row r="649" spans="1:2">
@@ -5663,7 +5663,7 @@
         <v>665</v>
       </c>
       <c r="B665">
-        <v>38.89404368282446</v>
+        <v>38.89404368282445</v>
       </c>
     </row>
     <row r="666" spans="1:2">
@@ -5671,7 +5671,7 @@
         <v>666</v>
       </c>
       <c r="B666">
-        <v>50.31736662776638</v>
+        <v>50.31736662776637</v>
       </c>
     </row>
     <row r="667" spans="1:2">
@@ -5799,7 +5799,7 @@
         <v>682</v>
       </c>
       <c r="B682">
-        <v>44.57757033558393</v>
+        <v>44.57757033558392</v>
       </c>
     </row>
     <row r="683" spans="1:2">
@@ -5863,7 +5863,7 @@
         <v>690</v>
       </c>
       <c r="B690">
-        <v>38.42776766031426</v>
+        <v>38.42776766031425</v>
       </c>
     </row>
     <row r="691" spans="1:2">
@@ -5903,7 +5903,7 @@
         <v>695</v>
       </c>
       <c r="B695">
-        <v>42.3100797094611</v>
+        <v>42.31007970946109</v>
       </c>
     </row>
     <row r="696" spans="1:2">
@@ -6055,7 +6055,7 @@
         <v>714</v>
       </c>
       <c r="B714">
-        <v>42.18816215737798</v>
+        <v>42.18816215737797</v>
       </c>
     </row>
     <row r="715" spans="1:2">
@@ -6079,7 +6079,7 @@
         <v>717</v>
       </c>
       <c r="B717">
-        <v>41.70664644085739</v>
+        <v>41.70664644085738</v>
       </c>
     </row>
     <row r="718" spans="1:2">
@@ -6183,7 +6183,7 @@
         <v>730</v>
       </c>
       <c r="B730">
-        <v>43.79301916508751</v>
+        <v>43.7930191650875</v>
       </c>
     </row>
     <row r="731" spans="1:2">
@@ -6191,7 +6191,7 @@
         <v>731</v>
       </c>
       <c r="B731">
-        <v>30.65405835982208</v>
+        <v>30.65405835982207</v>
       </c>
     </row>
     <row r="732" spans="1:2">
@@ -6231,7 +6231,7 @@
         <v>736</v>
       </c>
       <c r="B736">
-        <v>25.42915857546374</v>
+        <v>25.42915857546373</v>
       </c>
     </row>
     <row r="737" spans="1:2">
@@ -6271,7 +6271,7 @@
         <v>741</v>
       </c>
       <c r="B741">
-        <v>37.43660140756159</v>
+        <v>37.43660140756158</v>
       </c>
     </row>
     <row r="742" spans="1:2">
@@ -6311,7 +6311,7 @@
         <v>746</v>
       </c>
       <c r="B746">
-        <v>70.4991175631026</v>
+        <v>70.49911756310259</v>
       </c>
     </row>
     <row r="747" spans="1:2">
@@ -6351,7 +6351,7 @@
         <v>751</v>
       </c>
       <c r="B751">
-        <v>98.36548420317796</v>
+        <v>98.36548420317794</v>
       </c>
     </row>
     <row r="752" spans="1:2">
@@ -6359,7 +6359,7 @@
         <v>752</v>
       </c>
       <c r="B752">
-        <v>89.62464047510333</v>
+        <v>89.62464047510332</v>
       </c>
     </row>
     <row r="753" spans="1:2">
@@ -6383,7 +6383,7 @@
         <v>755</v>
       </c>
       <c r="B755">
-        <v>32.92741040671813</v>
+        <v>32.92741040671812</v>
       </c>
     </row>
     <row r="756" spans="1:2">
@@ -6423,7 +6423,7 @@
         <v>760</v>
       </c>
       <c r="B760">
-        <v>30.42604909174355</v>
+        <v>30.42604909174354</v>
       </c>
     </row>
     <row r="761" spans="1:2">
@@ -6463,7 +6463,7 @@
         <v>765</v>
       </c>
       <c r="B765">
-        <v>35.71686055269682</v>
+        <v>35.71686055269681</v>
       </c>
     </row>
     <row r="766" spans="1:2">
@@ -6471,7 +6471,7 @@
         <v>766</v>
       </c>
       <c r="B766">
-        <v>42.4018109445621</v>
+        <v>42.40181094456209</v>
       </c>
     </row>
     <row r="767" spans="1:2">
@@ -6487,7 +6487,7 @@
         <v>768</v>
       </c>
       <c r="B768">
-        <v>51.30853288051905</v>
+        <v>51.30853288051904</v>
       </c>
     </row>
     <row r="769" spans="1:2">
@@ -6527,7 +6527,7 @@
         <v>773</v>
       </c>
       <c r="B773">
-        <v>67.61735003994559</v>
+        <v>67.61735003994558</v>
       </c>
     </row>
     <row r="774" spans="1:2">
@@ -6535,7 +6535,7 @@
         <v>774</v>
       </c>
       <c r="B774">
-        <v>75.7494852207206</v>
+        <v>75.74948522072059</v>
       </c>
     </row>
     <row r="775" spans="1:2">
@@ -6631,7 +6631,7 @@
         <v>786</v>
       </c>
       <c r="B786">
-        <v>70.45544997834206</v>
+        <v>70.45544997834205</v>
       </c>
     </row>
     <row r="787" spans="1:2">
@@ -6719,7 +6719,7 @@
         <v>797</v>
       </c>
       <c r="B797">
-        <v>90.38369446523622</v>
+        <v>90.3836944652362</v>
       </c>
     </row>
     <row r="798" spans="1:2">
@@ -6727,7 +6727,7 @@
         <v>798</v>
       </c>
       <c r="B798">
-        <v>99.99876910163763</v>
+        <v>99.99876910163762</v>
       </c>
     </row>
     <row r="799" spans="1:2">
@@ -6807,7 +6807,7 @@
         <v>808</v>
       </c>
       <c r="B808">
-        <v>70.15212145332757</v>
+        <v>70.15212145332755</v>
       </c>
     </row>
     <row r="809" spans="1:2">
@@ -6839,7 +6839,7 @@
         <v>812</v>
       </c>
       <c r="B812">
-        <v>72.04770493138915</v>
+        <v>72.04770493138913</v>
       </c>
     </row>
     <row r="813" spans="1:2">
@@ -6959,7 +6959,7 @@
         <v>827</v>
       </c>
       <c r="B827">
-        <v>51.08931574360036</v>
+        <v>51.08931574360035</v>
       </c>
     </row>
     <row r="828" spans="1:2">
@@ -7039,7 +7039,7 @@
         <v>837</v>
       </c>
       <c r="B837">
-        <v>89.62141669367806</v>
+        <v>89.62141669367804</v>
       </c>
     </row>
     <row r="838" spans="1:2">
@@ -7199,7 +7199,7 @@
         <v>857</v>
       </c>
       <c r="B857">
-        <v>51.93013655351976</v>
+        <v>51.93013655351975</v>
       </c>
     </row>
     <row r="858" spans="1:2">
@@ -7207,7 +7207,7 @@
         <v>858</v>
       </c>
       <c r="B858">
-        <v>62.02145162774586</v>
+        <v>62.02145162774585</v>
       </c>
     </row>
     <row r="859" spans="1:2">
@@ -7231,7 +7231,7 @@
         <v>861</v>
       </c>
       <c r="B861">
-        <v>67.2662509356293</v>
+        <v>67.26625093562929</v>
       </c>
     </row>
     <row r="862" spans="1:2">
@@ -7327,7 +7327,7 @@
         <v>873</v>
       </c>
       <c r="B873">
-        <v>79.22677309443746</v>
+        <v>79.22677309443745</v>
       </c>
     </row>
     <row r="874" spans="1:2">
@@ -7375,7 +7375,7 @@
         <v>879</v>
       </c>
       <c r="B879">
-        <v>24.0385951112234</v>
+        <v>24.03859511122339</v>
       </c>
     </row>
     <row r="880" spans="1:2">
@@ -7415,7 +7415,7 @@
         <v>884</v>
       </c>
       <c r="B884">
-        <v>53.716111463122</v>
+        <v>53.71611146312199</v>
       </c>
     </row>
     <row r="885" spans="1:2">
@@ -7543,7 +7543,7 @@
         <v>900</v>
       </c>
       <c r="B900">
-        <v>51.2982753941659</v>
+        <v>51.29827539416589</v>
       </c>
     </row>
     <row r="901" spans="1:2">
@@ -7647,7 +7647,7 @@
         <v>913</v>
       </c>
       <c r="B913">
-        <v>49.13277348949722</v>
+        <v>49.13277348949721</v>
       </c>
     </row>
     <row r="914" spans="1:2">
@@ -7687,7 +7687,7 @@
         <v>918</v>
       </c>
       <c r="B918">
-        <v>55.32888138887538</v>
+        <v>55.32888138887537</v>
       </c>
     </row>
     <row r="919" spans="1:2">
@@ -7695,7 +7695,7 @@
         <v>919</v>
       </c>
       <c r="B919">
-        <v>58.57171243166317</v>
+        <v>58.57171243166316</v>
       </c>
     </row>
     <row r="920" spans="1:2">
@@ -7751,7 +7751,7 @@
         <v>926</v>
       </c>
       <c r="B926">
-        <v>28.06697376603905</v>
+        <v>28.06697376603904</v>
       </c>
     </row>
     <row r="927" spans="1:2">
@@ -7775,7 +7775,7 @@
         <v>929</v>
       </c>
       <c r="B929">
-        <v>40.18297011085706</v>
+        <v>40.18297011085705</v>
       </c>
     </row>
     <row r="930" spans="1:2">
@@ -7879,7 +7879,7 @@
         <v>942</v>
       </c>
       <c r="B942">
-        <v>45.30878257704399</v>
+        <v>45.30878257704398</v>
       </c>
     </row>
     <row r="943" spans="1:2">
@@ -7999,7 +7999,7 @@
         <v>957</v>
       </c>
       <c r="B957">
-        <v>16.1976553144623</v>
+        <v>16.19765531446229</v>
       </c>
     </row>
     <row r="958" spans="1:2">
@@ -8023,7 +8023,7 @@
         <v>960</v>
       </c>
       <c r="B960">
-        <v>27.77618868147927</v>
+        <v>27.77618868147926</v>
       </c>
     </row>
     <row r="961" spans="1:2">
@@ -8151,7 +8151,7 @@
         <v>976</v>
       </c>
       <c r="B976">
-        <v>7.69557656158507</v>
+        <v>7.695576561585069</v>
       </c>
     </row>
     <row r="977" spans="1:2">
@@ -8295,7 +8295,7 @@
         <v>994</v>
       </c>
       <c r="B994">
-        <v>7.560646655385386</v>
+        <v>7.560646655385385</v>
       </c>
     </row>
     <row r="995" spans="1:2">
@@ -8343,7 +8343,7 @@
         <v>1000</v>
       </c>
       <c r="B1000">
-        <v>3.43060165725811</v>
+        <v>3.430601657258109</v>
       </c>
     </row>
     <row r="1001" spans="1:2">
@@ -8431,7 +8431,7 @@
         <v>1011</v>
       </c>
       <c r="B1011">
-        <v>47.47955976040857</v>
+        <v>47.47955976040856</v>
       </c>
     </row>
     <row r="1012" spans="1:2">
@@ -8463,7 +8463,7 @@
         <v>1015</v>
       </c>
       <c r="B1015">
-        <v>70.20106431678401</v>
+        <v>70.201064316784</v>
       </c>
     </row>
     <row r="1016" spans="1:2">
@@ -8663,7 +8663,7 @@
         <v>1040</v>
       </c>
       <c r="B1040">
-        <v>79.56058100747273</v>
+        <v>79.56058100747272</v>
       </c>
     </row>
     <row r="1041" spans="1:2">
@@ -8671,7 +8671,7 @@
         <v>1041</v>
       </c>
       <c r="B1041">
-        <v>55.54018560775021</v>
+        <v>55.5401856077502</v>
       </c>
     </row>
     <row r="1042" spans="1:2">
@@ -8727,7 +8727,7 @@
         <v>1048</v>
       </c>
       <c r="B1048">
-        <v>25.66590136049438</v>
+        <v>25.66590136049437</v>
       </c>
     </row>
     <row r="1049" spans="1:2">
@@ -8823,7 +8823,7 @@
         <v>1060</v>
       </c>
       <c r="B1060">
-        <v>52.14935369043845</v>
+        <v>52.14935369043844</v>
       </c>
     </row>
     <row r="1061" spans="1:2">
@@ -8871,7 +8871,7 @@
         <v>1066</v>
       </c>
       <c r="B1066">
-        <v>17.52060729008348</v>
+        <v>17.52060729008347</v>
       </c>
     </row>
     <row r="1067" spans="1:2">
@@ -8967,7 +8967,7 @@
         <v>1078</v>
       </c>
       <c r="B1078">
-        <v>21.9199259585328</v>
+        <v>21.91992595853279</v>
       </c>
     </row>
     <row r="1079" spans="1:2">
@@ -8975,7 +8975,7 @@
         <v>1079</v>
       </c>
       <c r="B1079">
-        <v>24.2936255290665</v>
+        <v>24.29362552906649</v>
       </c>
     </row>
     <row r="1080" spans="1:2">
@@ -9095,7 +9095,7 @@
         <v>1094</v>
       </c>
       <c r="B1094">
-        <v>30.95328389029531</v>
+        <v>30.9532838902953</v>
       </c>
     </row>
     <row r="1095" spans="1:2">
@@ -9199,7 +9199,7 @@
         <v>1107</v>
       </c>
       <c r="B1107">
-        <v>51.26545143783583</v>
+        <v>51.26545143783582</v>
       </c>
     </row>
     <row r="1108" spans="1:2">
@@ -9207,7 +9207,7 @@
         <v>1108</v>
       </c>
       <c r="B1108">
-        <v>54.63078617478406</v>
+        <v>54.63078617478405</v>
       </c>
     </row>
     <row r="1109" spans="1:2">
@@ -9343,7 +9343,7 @@
         <v>1125</v>
       </c>
       <c r="B1125">
-        <v>49.64007945742001</v>
+        <v>49.64007945742</v>
       </c>
     </row>
     <row r="1126" spans="1:2">
@@ -9367,7 +9367,7 @@
         <v>1128</v>
       </c>
       <c r="B1128">
-        <v>62.74475095116206</v>
+        <v>62.74475095116205</v>
       </c>
     </row>
     <row r="1129" spans="1:2">
@@ -9391,7 +9391,7 @@
         <v>1131</v>
       </c>
       <c r="B1131">
-        <v>83.48949135176673</v>
+        <v>83.48949135176672</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
@@ -9447,7 +9447,7 @@
         <v>1138</v>
       </c>
       <c r="B1138">
-        <v>49.62982197106686</v>
+        <v>49.62982197106685</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
@@ -9543,7 +9543,7 @@
         <v>1150</v>
       </c>
       <c r="B1150">
-        <v>48.58531678927783</v>
+        <v>48.58531678927782</v>
       </c>
     </row>
     <row r="1151" spans="1:2">
@@ -9607,7 +9607,7 @@
         <v>1158</v>
       </c>
       <c r="B1158">
-        <v>73.27039730468428</v>
+        <v>73.27039730468427</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
@@ -9655,7 +9655,7 @@
         <v>1164</v>
       </c>
       <c r="B1164">
-        <v>25.57929886856995</v>
+        <v>25.57929886856994</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
@@ -9687,7 +9687,7 @@
         <v>1168</v>
       </c>
       <c r="B1168">
-        <v>19.22891837444046</v>
+        <v>19.22891837444045</v>
       </c>
     </row>
     <row r="1169" spans="1:2">
@@ -9735,7 +9735,7 @@
         <v>1174</v>
       </c>
       <c r="B1174">
-        <v>53.7213867418179</v>
+        <v>53.72138674181789</v>
       </c>
     </row>
     <row r="1175" spans="1:2">
@@ -9751,7 +9751,7 @@
         <v>1176</v>
       </c>
       <c r="B1176">
-        <v>57.35400226602528</v>
+        <v>57.35400226602527</v>
       </c>
     </row>
     <row r="1177" spans="1:2">
@@ -10167,7 +10167,7 @@
         <v>1228</v>
       </c>
       <c r="B1228">
-        <v>19.12731064533657</v>
+        <v>19.12731064533656</v>
       </c>
     </row>
     <row r="1229" spans="1:2">
@@ -10215,7 +10215,7 @@
         <v>1234</v>
       </c>
       <c r="B1234">
-        <v>12.66992991499182</v>
+        <v>12.66992991499181</v>
       </c>
     </row>
     <row r="1235" spans="1:2">
@@ -10247,7 +10247,7 @@
         <v>1238</v>
       </c>
       <c r="B1238">
-        <v>0.2573574018900738</v>
+        <v>0.2573574018900737</v>
       </c>
     </row>
     <row r="1239" spans="1:2">
@@ -10271,7 +10271,7 @@
         <v>1241</v>
       </c>
       <c r="B1241">
-        <v>0.8272809279332456</v>
+        <v>0.8272809279332455</v>
       </c>
     </row>
     <row r="1242" spans="1:2">
@@ -10327,7 +10327,7 @@
         <v>1248</v>
       </c>
       <c r="B1248">
-        <v>6.799160175631613</v>
+        <v>6.799160175631612</v>
       </c>
     </row>
     <row r="1249" spans="1:2">
@@ -10471,7 +10471,7 @@
         <v>1266</v>
       </c>
       <c r="B1266">
-        <v>13.55570782224187</v>
+        <v>13.55570782224186</v>
       </c>
     </row>
     <row r="1267" spans="1:2">
@@ -10503,7 +10503,7 @@
         <v>1270</v>
       </c>
       <c r="B1270">
-        <v>3.649144730787875</v>
+        <v>3.649144730787873</v>
       </c>
     </row>
     <row r="1271" spans="1:2">
@@ -10599,7 +10599,7 @@
         <v>1282</v>
       </c>
       <c r="B1282">
-        <v>14.71761726211864</v>
+        <v>14.71761726211863</v>
       </c>
     </row>
     <row r="1283" spans="1:2">
@@ -10623,7 +10623,7 @@
         <v>1285</v>
       </c>
       <c r="B1285">
-        <v>6.569333867113386</v>
+        <v>6.569333867113385</v>
       </c>
     </row>
     <row r="1286" spans="1:2">
@@ -10671,7 +10671,7 @@
         <v>1291</v>
       </c>
       <c r="B1291">
-        <v>8.027362284453579</v>
+        <v>8.027362284453577</v>
       </c>
     </row>
     <row r="1292" spans="1:2">
@@ -10679,7 +10679,7 @@
         <v>1292</v>
       </c>
       <c r="B1292">
-        <v>4.745816557458629</v>
+        <v>4.745816557458628</v>
       </c>
     </row>
     <row r="1293" spans="1:2">
@@ -10871,7 +10871,7 @@
         <v>1316</v>
       </c>
       <c r="B1316">
-        <v>0.4466578471822099</v>
+        <v>0.4466578471822098</v>
       </c>
     </row>
     <row r="1317" spans="1:2">
@@ -10951,7 +10951,7 @@
         <v>1326</v>
       </c>
       <c r="B1326">
-        <v>23.76395824089385</v>
+        <v>23.76395824089384</v>
       </c>
     </row>
     <row r="1327" spans="1:2">
@@ -11143,7 +11143,7 @@
         <v>1350</v>
       </c>
       <c r="B1350">
-        <v>22.94010624411294</v>
+        <v>22.94010624411293</v>
       </c>
     </row>
     <row r="1351" spans="1:2">
@@ -11215,7 +11215,7 @@
         <v>1359</v>
       </c>
       <c r="B1359">
-        <v>0.4757773855836012</v>
+        <v>0.4757773855836011</v>
       </c>
     </row>
     <row r="1360" spans="1:2">
@@ -11503,7 +11503,7 @@
         <v>1395</v>
       </c>
       <c r="B1395">
-        <v>7.431138563400937</v>
+        <v>7.431138563400936</v>
       </c>
     </row>
     <row r="1396" spans="1:2">
@@ -11679,7 +11679,7 @@
         <v>1417</v>
       </c>
       <c r="B1417">
-        <v>34.4455183869839</v>
+        <v>34.44551838698389</v>
       </c>
     </row>
     <row r="1418" spans="1:2">
@@ -11711,7 +11711,7 @@
         <v>1421</v>
       </c>
       <c r="B1421">
-        <v>52.50103893683206</v>
+        <v>52.50103893683205</v>
       </c>
     </row>
     <row r="1422" spans="1:2">
@@ -11751,7 +11751,7 @@
         <v>1426</v>
       </c>
       <c r="B1426">
-        <v>34.16798011337161</v>
+        <v>34.1679801133716</v>
       </c>
     </row>
     <row r="1427" spans="1:2">
@@ -11759,7 +11759,7 @@
         <v>1427</v>
       </c>
       <c r="B1427">
-        <v>17.16660678248444</v>
+        <v>17.16660678248443</v>
       </c>
     </row>
     <row r="1428" spans="1:2">
@@ -11879,7 +11879,7 @@
         <v>1442</v>
       </c>
       <c r="B1442">
-        <v>56.32239220993734</v>
+        <v>56.32239220993733</v>
       </c>
     </row>
     <row r="1443" spans="1:2">
@@ -11919,7 +11919,7 @@
         <v>1447</v>
       </c>
       <c r="B1447">
-        <v>76.30514791002251</v>
+        <v>76.3051479100225</v>
       </c>
     </row>
     <row r="1448" spans="1:2">
@@ -11927,7 +11927,7 @@
         <v>1448</v>
       </c>
       <c r="B1448">
-        <v>59.68538237857628</v>
+        <v>59.68538237857627</v>
       </c>
     </row>
     <row r="1449" spans="1:2">
@@ -11991,7 +11991,7 @@
         <v>1456</v>
       </c>
       <c r="B1456">
-        <v>24.92070963049018</v>
+        <v>24.92070963049017</v>
       </c>
     </row>
     <row r="1457" spans="1:2">
@@ -12007,7 +12007,7 @@
         <v>1458</v>
       </c>
       <c r="B1458">
-        <v>32.89165574000145</v>
+        <v>32.89165574000144</v>
       </c>
     </row>
     <row r="1459" spans="1:2">
@@ -12063,7 +12063,7 @@
         <v>1465</v>
       </c>
       <c r="B1465">
-        <v>71.02635236165436</v>
+        <v>71.02635236165435</v>
       </c>
     </row>
     <row r="1466" spans="1:2">
@@ -12103,7 +12103,7 @@
         <v>1470</v>
       </c>
       <c r="B1470">
-        <v>84.94664055599094</v>
+        <v>84.94664055599092</v>
       </c>
     </row>
     <row r="1471" spans="1:2">
@@ -12143,7 +12143,7 @@
         <v>1475</v>
       </c>
       <c r="B1475">
-        <v>29.18401402989677</v>
+        <v>29.18401402989676</v>
       </c>
     </row>
     <row r="1476" spans="1:2">
@@ -12263,7 +12263,7 @@
         <v>1490</v>
       </c>
       <c r="B1490">
-        <v>60.13378106772814</v>
+        <v>60.13378106772813</v>
       </c>
     </row>
     <row r="1491" spans="1:2">
@@ -12319,7 +12319,7 @@
         <v>1497</v>
       </c>
       <c r="B1497">
-        <v>34.46339572034224</v>
+        <v>34.46339572034223</v>
       </c>
     </row>
     <row r="1498" spans="1:2">
@@ -12327,7 +12327,7 @@
         <v>1498</v>
       </c>
       <c r="B1498">
-        <v>24.12083084467177</v>
+        <v>24.12083084467176</v>
       </c>
     </row>
     <row r="1499" spans="1:2">
@@ -12407,7 +12407,7 @@
         <v>1508</v>
       </c>
       <c r="B1508">
-        <v>21.3268674046977</v>
+        <v>21.32686740469769</v>
       </c>
     </row>
     <row r="1509" spans="1:2">
@@ -12463,7 +12463,7 @@
         <v>1515</v>
       </c>
       <c r="B1515">
-        <v>44.95240819403179</v>
+        <v>44.95240819403178</v>
       </c>
     </row>
     <row r="1516" spans="1:2">
@@ -12543,7 +12543,7 @@
         <v>1525</v>
       </c>
       <c r="B1525">
-        <v>8.276970888081447</v>
+        <v>8.276970888081445</v>
       </c>
     </row>
     <row r="1526" spans="1:2">
@@ -12767,7 +12767,7 @@
         <v>1553</v>
       </c>
       <c r="B1553">
-        <v>4.15375444515498</v>
+        <v>4.153754445154979</v>
       </c>
     </row>
     <row r="1554" spans="1:2">
@@ -12855,7 +12855,7 @@
         <v>1564</v>
       </c>
       <c r="B1564">
-        <v>33.42387274621045</v>
+        <v>33.42387274621044</v>
       </c>
     </row>
     <row r="1565" spans="1:2">
@@ -12879,7 +12879,7 @@
         <v>1567</v>
       </c>
       <c r="B1567">
-        <v>41.14336390455029</v>
+        <v>41.14336390455028</v>
       </c>
     </row>
     <row r="1568" spans="1:2">
@@ -13031,7 +13031,7 @@
         <v>1586</v>
       </c>
       <c r="B1586">
-        <v>5.594901970668278</v>
+        <v>5.594901970668277</v>
       </c>
     </row>
     <row r="1587" spans="1:2">
@@ -13087,7 +13087,7 @@
         <v>1593</v>
       </c>
       <c r="B1593">
-        <v>27.82982068155429</v>
+        <v>27.82982068155428</v>
       </c>
     </row>
     <row r="1594" spans="1:2">
@@ -13199,7 +13199,7 @@
         <v>1607</v>
       </c>
       <c r="B1607">
-        <v>54.46285646963111</v>
+        <v>54.4628564696311</v>
       </c>
     </row>
     <row r="1608" spans="1:2">
@@ -13215,7 +13215,7 @@
         <v>1609</v>
       </c>
       <c r="B1609">
-        <v>70.81973727939811</v>
+        <v>70.8197372793981</v>
       </c>
     </row>
     <row r="1610" spans="1:2">
@@ -13255,7 +13255,7 @@
         <v>1614</v>
       </c>
       <c r="B1614">
-        <v>93.96297106040724</v>
+        <v>93.9629710604072</v>
       </c>
     </row>
     <row r="1615" spans="1:2">
@@ -13359,7 +13359,7 @@
         <v>1627</v>
       </c>
       <c r="B1627">
-        <v>33.54373880102294</v>
+        <v>33.54373880102293</v>
       </c>
     </row>
     <row r="1628" spans="1:2">
@@ -13391,7 +13391,7 @@
         <v>1631</v>
       </c>
       <c r="B1631">
-        <v>46.04761466550924</v>
+        <v>46.04761466550923</v>
       </c>
     </row>
     <row r="1632" spans="1:2">
@@ -13415,7 +13415,7 @@
         <v>1634</v>
       </c>
       <c r="B1634">
-        <v>69.04138221680107</v>
+        <v>69.04138221680105</v>
       </c>
     </row>
     <row r="1635" spans="1:2">
@@ -13447,7 +13447,7 @@
         <v>1638</v>
       </c>
       <c r="B1638">
-        <v>85.2904128843407</v>
+        <v>85.29041288434068</v>
       </c>
     </row>
     <row r="1639" spans="1:2">
@@ -13463,7 +13463,7 @@
         <v>1640</v>
       </c>
       <c r="B1640">
-        <v>64.09170544484961</v>
+        <v>64.09170544484959</v>
       </c>
     </row>
     <row r="1641" spans="1:2">
@@ -13471,7 +13471,7 @@
         <v>1641</v>
       </c>
       <c r="B1641">
-        <v>43.80591429078861</v>
+        <v>43.8059142907886</v>
       </c>
     </row>
     <row r="1642" spans="1:2">
@@ -13639,7 +13639,7 @@
         <v>1662</v>
       </c>
       <c r="B1662">
-        <v>57.50727841924516</v>
+        <v>57.50727841924515</v>
       </c>
     </row>
     <row r="1663" spans="1:2">
@@ -13679,7 +13679,7 @@
         <v>1667</v>
       </c>
       <c r="B1667">
-        <v>7.27220613913489</v>
+        <v>7.272206139134889</v>
       </c>
     </row>
     <row r="1668" spans="1:2">
@@ -13759,7 +13759,7 @@
         <v>1677</v>
       </c>
       <c r="B1677">
-        <v>22.33734703889815</v>
+        <v>22.33734703889814</v>
       </c>
     </row>
     <row r="1678" spans="1:2">
@@ -13791,7 +13791,7 @@
         <v>1681</v>
       </c>
       <c r="B1681">
-        <v>41.00855122676607</v>
+        <v>41.00855122676606</v>
       </c>
     </row>
     <row r="1682" spans="1:2">
@@ -13799,7 +13799,7 @@
         <v>1682</v>
       </c>
       <c r="B1682">
-        <v>46.32017073146429</v>
+        <v>46.32017073146428</v>
       </c>
     </row>
     <row r="1683" spans="1:2">
@@ -13903,7 +13903,7 @@
         <v>1695</v>
       </c>
       <c r="B1695">
-        <v>7.317690764335131</v>
+        <v>7.31769076433513</v>
       </c>
     </row>
     <row r="1696" spans="1:2">
@@ -14007,7 +14007,7 @@
         <v>1708</v>
       </c>
       <c r="B1708">
-        <v>45.26833877370872</v>
+        <v>45.26833877370871</v>
       </c>
     </row>
     <row r="1709" spans="1:2">
@@ -14015,7 +14015,7 @@
         <v>1709</v>
       </c>
       <c r="B1709">
-        <v>48.77112382778912</v>
+        <v>48.77112382778911</v>
       </c>
     </row>
     <row r="1710" spans="1:2">
@@ -14031,7 +14031,7 @@
         <v>1711</v>
       </c>
       <c r="B1711">
-        <v>52.50338350514135</v>
+        <v>52.50338350514134</v>
       </c>
     </row>
     <row r="1712" spans="1:2">
@@ -14055,7 +14055,7 @@
         <v>1714</v>
       </c>
       <c r="B1714">
-        <v>31.02977543138592</v>
+        <v>31.02977543138591</v>
       </c>
     </row>
     <row r="1715" spans="1:2">
@@ -14087,7 +14087,7 @@
         <v>1718</v>
       </c>
       <c r="B1718">
-        <v>9.260458679621189</v>
+        <v>9.260458679621188</v>
       </c>
     </row>
     <row r="1719" spans="1:2">
@@ -14103,7 +14103,7 @@
         <v>1720</v>
       </c>
       <c r="B1720">
-        <v>6.293290255798264</v>
+        <v>6.293290255798263</v>
       </c>
     </row>
     <row r="1721" spans="1:2">
@@ -14215,7 +14215,7 @@
         <v>1734</v>
       </c>
       <c r="B1734">
-        <v>57.11720086678691</v>
+        <v>57.1172008667869</v>
       </c>
     </row>
     <row r="1735" spans="1:2">
@@ -14383,7 +14383,7 @@
         <v>1755</v>
       </c>
       <c r="B1755">
-        <v>53.44355539716695</v>
+        <v>53.44355539716694</v>
       </c>
     </row>
     <row r="1756" spans="1:2">
@@ -14399,7 +14399,7 @@
         <v>1757</v>
       </c>
       <c r="B1757">
-        <v>62.01881398839791</v>
+        <v>62.0188139883979</v>
       </c>
     </row>
     <row r="1758" spans="1:2">
@@ -14423,7 +14423,7 @@
         <v>1760</v>
       </c>
       <c r="B1760">
-        <v>44.02249378835934</v>
+        <v>44.02249378835933</v>
       </c>
     </row>
     <row r="1761" spans="1:2">
@@ -14479,7 +14479,7 @@
         <v>1767</v>
       </c>
       <c r="B1767">
-        <v>8.769330233032507</v>
+        <v>8.769330233032505</v>
       </c>
     </row>
     <row r="1768" spans="1:2">
@@ -14591,7 +14591,7 @@
         <v>1781</v>
       </c>
       <c r="B1781">
-        <v>56.78866823244754</v>
+        <v>56.78866823244753</v>
       </c>
     </row>
     <row r="1782" spans="1:2">
@@ -14607,7 +14607,7 @@
         <v>1783</v>
       </c>
       <c r="B1783">
-        <v>60.63288104656841</v>
+        <v>60.6328810465684</v>
       </c>
     </row>
     <row r="1784" spans="1:2">
@@ -14679,7 +14679,7 @@
         <v>1792</v>
       </c>
       <c r="B1792">
-        <v>9.581547309578561</v>
+        <v>9.581547309578555</v>
       </c>
     </row>
     <row r="1793" spans="1:2">
@@ -14687,7 +14687,7 @@
         <v>1793</v>
       </c>
       <c r="B1793">
-        <v>9.901287812758088</v>
+        <v>9.901287812758085</v>
       </c>
     </row>
     <row r="1794" spans="1:2">
@@ -14983,7 +14983,7 @@
         <v>1830</v>
       </c>
       <c r="B1830">
-        <v>54.15454573695937</v>
+        <v>54.15454573695936</v>
       </c>
     </row>
     <row r="1831" spans="1:2">
@@ -15007,7 +15007,7 @@
         <v>1833</v>
       </c>
       <c r="B1833">
-        <v>15.51392058126538</v>
+        <v>15.51392058126537</v>
       </c>
     </row>
     <row r="1834" spans="1:2">
@@ -15135,7 +15135,7 @@
         <v>1849</v>
       </c>
       <c r="B1849">
-        <v>27.94441145767088</v>
+        <v>27.94441145767087</v>
       </c>
     </row>
     <row r="1850" spans="1:2">
@@ -15151,7 +15151,7 @@
         <v>1851</v>
       </c>
       <c r="B1851">
-        <v>42.94956071582016</v>
+        <v>42.94956071582015</v>
       </c>
     </row>
     <row r="1852" spans="1:2">
@@ -15183,7 +15183,7 @@
         <v>1855</v>
       </c>
       <c r="B1855">
-        <v>50.93428116414851</v>
+        <v>50.9342811641485</v>
       </c>
     </row>
     <row r="1856" spans="1:2">
@@ -15287,7 +15287,7 @@
         <v>1868</v>
       </c>
       <c r="B1868">
-        <v>0.6874010518905721</v>
+        <v>0.687401051890572</v>
       </c>
     </row>
     <row r="1869" spans="1:2">
@@ -15423,7 +15423,7 @@
         <v>1885</v>
       </c>
       <c r="B1885">
-        <v>8.147638638720196</v>
+        <v>8.147638638720194</v>
       </c>
     </row>
     <row r="1886" spans="1:2">
@@ -15463,7 +15463,7 @@
         <v>1890</v>
       </c>
       <c r="B1890">
-        <v>7.575681199668713</v>
+        <v>7.575681199668712</v>
       </c>
     </row>
     <row r="1891" spans="1:2">
@@ -15471,7 +15471,7 @@
         <v>1891</v>
       </c>
       <c r="B1891">
-        <v>7.356522676957759</v>
+        <v>7.356522676957758</v>
       </c>
     </row>
     <row r="1892" spans="1:2">
@@ -15479,7 +15479,7 @@
         <v>1892</v>
       </c>
       <c r="B1892">
-        <v>6.52282349327783</v>
+        <v>6.522823493277829</v>
       </c>
     </row>
     <row r="1893" spans="1:2">
@@ -15559,7 +15559,7 @@
         <v>1902</v>
       </c>
       <c r="B1902">
-        <v>45.96350327741343</v>
+        <v>45.96350327741342</v>
       </c>
     </row>
     <row r="1903" spans="1:2">
@@ -15655,7 +15655,7 @@
         <v>1914</v>
       </c>
       <c r="B1914">
-        <v>3.994822020888932</v>
+        <v>3.994822020888931</v>
       </c>
     </row>
     <row r="1915" spans="1:2">
@@ -15903,7 +15903,7 @@
         <v>1945</v>
       </c>
       <c r="B1945">
-        <v>22.09362916314738</v>
+        <v>22.09362916314737</v>
       </c>
     </row>
     <row r="1946" spans="1:2">
@@ -15927,7 +15927,7 @@
         <v>1948</v>
       </c>
       <c r="B1948">
-        <v>33.89806168676451</v>
+        <v>33.8980616867645</v>
       </c>
     </row>
     <row r="1949" spans="1:2">
@@ -16127,7 +16127,7 @@
         <v>1973</v>
       </c>
       <c r="B1973">
-        <v>54.52147067736338</v>
+        <v>54.52147067736337</v>
       </c>
     </row>
     <row r="1974" spans="1:2">
@@ -16207,7 +16207,7 @@
         <v>1983</v>
       </c>
       <c r="B1983">
-        <v>11.19223643095745</v>
+        <v>11.19223643095744</v>
       </c>
     </row>
     <row r="1984" spans="1:2">
@@ -16327,7 +16327,7 @@
         <v>1998</v>
       </c>
       <c r="B1998">
-        <v>38.32577893886011</v>
+        <v>38.3257789388601</v>
       </c>
     </row>
     <row r="1999" spans="1:2">
@@ -16439,7 +16439,7 @@
         <v>2012</v>
       </c>
       <c r="B2012">
-        <v>21.41616615017781</v>
+        <v>21.4161661501778</v>
       </c>
     </row>
     <row r="2013" spans="1:2">
@@ -16447,7 +16447,7 @@
         <v>2013</v>
       </c>
       <c r="B2013">
-        <v>25.31568146929407</v>
+        <v>25.31568146929406</v>
       </c>
     </row>
     <row r="2014" spans="1:2">
@@ -16463,7 +16463,7 @@
         <v>2015</v>
       </c>
       <c r="B2015">
-        <v>30.03362697097601</v>
+        <v>30.033626970976</v>
       </c>
     </row>
     <row r="2016" spans="1:2">
@@ -16471,7 +16471,7 @@
         <v>2016</v>
       </c>
       <c r="B2016">
-        <v>32.27767191400593</v>
+        <v>32.27767191400592</v>
       </c>
     </row>
     <row r="2017" spans="1:2">
@@ -16495,7 +16495,7 @@
         <v>2019</v>
       </c>
       <c r="B2019">
-        <v>37.73231008557089</v>
+        <v>37.73231008557088</v>
       </c>
     </row>
     <row r="2020" spans="1:2">
@@ -16503,7 +16503,7 @@
         <v>2020</v>
       </c>
       <c r="B2020">
-        <v>38.87352871011817</v>
+        <v>38.87352871011816</v>
       </c>
     </row>
     <row r="2021" spans="1:2">
@@ -16751,7 +16751,7 @@
         <v>2051</v>
       </c>
       <c r="B2051">
-        <v>18.7310199868587</v>
+        <v>18.73101998685869</v>
       </c>
     </row>
     <row r="2052" spans="1:2">
@@ -16935,7 +16935,7 @@
         <v>2074</v>
       </c>
       <c r="B2074">
-        <v>29.2264800233988</v>
+        <v>29.22648002339879</v>
       </c>
     </row>
     <row r="2075" spans="1:2">
@@ -16959,7 +16959,7 @@
         <v>2077</v>
       </c>
       <c r="B2077">
-        <v>20.13852295713368</v>
+        <v>20.13852295713367</v>
       </c>
     </row>
     <row r="2078" spans="1:2">
@@ -17167,7 +17167,7 @@
         <v>2103</v>
       </c>
       <c r="B2103">
-        <v>1.611544888811779</v>
+        <v>1.611544888811778</v>
       </c>
     </row>
     <row r="2104" spans="1:2">
@@ -17279,7 +17279,7 @@
         <v>2117</v>
       </c>
       <c r="B2117">
-        <v>38.59335279715792</v>
+        <v>38.59335279715791</v>
       </c>
     </row>
     <row r="2118" spans="1:2">
@@ -17327,7 +17327,7 @@
         <v>2123</v>
       </c>
       <c r="B2123">
-        <v>0.5917280113195759</v>
+        <v>0.5917280113195758</v>
       </c>
     </row>
     <row r="2124" spans="1:2">
@@ -17527,7 +17527,7 @@
         <v>2148</v>
       </c>
       <c r="B2148">
-        <v>7.587960876188624</v>
+        <v>7.587960876188623</v>
       </c>
     </row>
     <row r="2149" spans="1:2">
@@ -17583,7 +17583,7 @@
         <v>2155</v>
       </c>
       <c r="B2155">
-        <v>3.994909942200529</v>
+        <v>3.99490994220053</v>
       </c>
     </row>
     <row r="2156" spans="1:2">
@@ -17591,7 +17591,7 @@
         <v>2156</v>
       </c>
       <c r="B2156">
-        <v>6.009802640101145</v>
+        <v>6.009802640101144</v>
       </c>
     </row>
     <row r="2157" spans="1:2">
@@ -17919,7 +17919,7 @@
         <v>2197</v>
       </c>
       <c r="B2197">
-        <v>0.2202003902533951</v>
+        <v>0.220200390253395</v>
       </c>
     </row>
     <row r="2198" spans="1:2">
@@ -18039,7 +18039,7 @@
         <v>2212</v>
       </c>
       <c r="B2212">
-        <v>28.09973910816139</v>
+        <v>28.09973910816138</v>
       </c>
     </row>
     <row r="2213" spans="1:2">
@@ -18087,7 +18087,7 @@
         <v>2218</v>
       </c>
       <c r="B2218">
-        <v>0.4445535971246215</v>
+        <v>0.4445535971246214</v>
       </c>
     </row>
     <row r="2219" spans="1:2">
@@ -18655,7 +18655,7 @@
         <v>2289</v>
       </c>
       <c r="B2289">
-        <v>3.19488462086279</v>
+        <v>3.194884620862789</v>
       </c>
     </row>
     <row r="2290" spans="1:2">
@@ -18783,7 +18783,7 @@
         <v>2305</v>
       </c>
       <c r="B2305">
-        <v>0.5860219181968395</v>
+        <v>0.5860219181968394</v>
       </c>
     </row>
     <row r="2306" spans="1:2">
@@ -18799,7 +18799,7 @@
         <v>2307</v>
       </c>
       <c r="B2307">
-        <v>2.481124759755017</v>
+        <v>2.481124759755016</v>
       </c>
     </row>
     <row r="2308" spans="1:2">
@@ -18823,7 +18823,7 @@
         <v>2310</v>
       </c>
       <c r="B2310">
-        <v>5.562048707234342</v>
+        <v>5.562048707234341</v>
       </c>
     </row>
     <row r="2311" spans="1:2">
@@ -18839,7 +18839,7 @@
         <v>2312</v>
       </c>
       <c r="B2312">
-        <v>0.0901093799730492</v>
+        <v>0.0901093799730491</v>
       </c>
     </row>
     <row r="2313" spans="1:2">
@@ -19023,7 +19023,7 @@
         <v>2335</v>
       </c>
       <c r="B2335">
-        <v>17.32073284171644</v>
+        <v>17.32073284171643</v>
       </c>
     </row>
     <row r="2336" spans="1:2">
@@ -19055,7 +19055,7 @@
         <v>2339</v>
       </c>
       <c r="B2339">
-        <v>0.5569228947681545</v>
+        <v>0.5569228947681544</v>
       </c>
     </row>
     <row r="2340" spans="1:2">
@@ -19063,7 +19063,7 @@
         <v>2340</v>
       </c>
       <c r="B2340">
-        <v>0.2945686316689048</v>
+        <v>0.2945686316689047</v>
       </c>
     </row>
     <row r="2341" spans="1:2">
@@ -19135,7 +19135,7 @@
         <v>2349</v>
       </c>
       <c r="B2349">
-        <v>5.348429227154087</v>
+        <v>5.348429227154086</v>
       </c>
     </row>
     <row r="2350" spans="1:2">
@@ -19215,7 +19215,7 @@
         <v>2359</v>
       </c>
       <c r="B2359">
-        <v>48.35320452665804</v>
+        <v>48.35320452665803</v>
       </c>
     </row>
     <row r="2360" spans="1:2">
@@ -19287,7 +19287,7 @@
         <v>2368</v>
       </c>
       <c r="B2368">
-        <v>7.044372713679561</v>
+        <v>7.04437271367956</v>
       </c>
     </row>
     <row r="2369" spans="1:2">
@@ -19303,7 +19303,7 @@
         <v>2370</v>
       </c>
       <c r="B2370">
-        <v>11.19853745828867</v>
+        <v>11.19853745828866</v>
       </c>
     </row>
     <row r="2371" spans="1:2">
@@ -19431,7 +19431,7 @@
         <v>2386</v>
       </c>
       <c r="B2386">
-        <v>19.77306337192298</v>
+        <v>19.77306337192297</v>
       </c>
     </row>
     <row r="2387" spans="1:2">
@@ -19447,7 +19447,7 @@
         <v>2388</v>
       </c>
       <c r="B2388">
-        <v>9.408840546495428</v>
+        <v>9.408840546495426</v>
       </c>
     </row>
     <row r="2389" spans="1:2">
@@ -19511,7 +19511,7 @@
         <v>2396</v>
       </c>
       <c r="B2396">
-        <v>8.696150394678769</v>
+        <v>8.696150394678767</v>
       </c>
     </row>
     <row r="2397" spans="1:2">
@@ -19599,7 +19599,7 @@
         <v>2407</v>
       </c>
       <c r="B2407">
-        <v>42.32531940347149</v>
+        <v>42.32531940347148</v>
       </c>
     </row>
     <row r="2408" spans="1:2">
@@ -19607,7 +19607,7 @@
         <v>2408</v>
       </c>
       <c r="B2408">
-        <v>35.53603572184277</v>
+        <v>35.53603572184276</v>
       </c>
     </row>
     <row r="2409" spans="1:2">
@@ -19703,7 +19703,7 @@
         <v>2420</v>
       </c>
       <c r="B2420">
-        <v>0.5432364772626697</v>
+        <v>0.5432364772626695</v>
       </c>
     </row>
     <row r="2421" spans="1:2">
@@ -19815,7 +19815,7 @@
         <v>2434</v>
       </c>
       <c r="B2434">
-        <v>0.6264041766139863</v>
+        <v>0.6264041766139862</v>
       </c>
     </row>
     <row r="2435" spans="1:2">
@@ -19927,7 +19927,7 @@
         <v>2448</v>
       </c>
       <c r="B2448">
-        <v>2.205591092047166</v>
+        <v>2.205591092047165</v>
       </c>
     </row>
     <row r="2449" spans="1:2">
@@ -20143,7 +20143,7 @@
         <v>2475</v>
       </c>
       <c r="B2475">
-        <v>32.68005845008796</v>
+        <v>32.68005845008795</v>
       </c>
     </row>
     <row r="2476" spans="1:2">
@@ -20175,7 +20175,7 @@
         <v>2479</v>
       </c>
       <c r="B2479">
-        <v>32.76416983818376</v>
+        <v>32.76416983818375</v>
       </c>
     </row>
     <row r="2480" spans="1:2">
@@ -20287,7 +20287,7 @@
         <v>2493</v>
       </c>
       <c r="B2493">
-        <v>5.949371391929176</v>
+        <v>5.949371391929175</v>
       </c>
     </row>
     <row r="2494" spans="1:2">
@@ -20311,7 +20311,7 @@
         <v>2496</v>
       </c>
       <c r="B2496">
-        <v>26.0151541172671</v>
+        <v>26.01515411726709</v>
       </c>
     </row>
     <row r="2497" spans="1:2">
@@ -20359,7 +20359,7 @@
         <v>2502</v>
       </c>
       <c r="B2502">
-        <v>38.20093067639038</v>
+        <v>38.20093067639037</v>
       </c>
     </row>
     <row r="2503" spans="1:2">
@@ -20407,7 +20407,7 @@
         <v>2508</v>
       </c>
       <c r="B2508">
-        <v>0.2838592297741419</v>
+        <v>0.2838592297741418</v>
       </c>
     </row>
     <row r="2509" spans="1:2">
@@ -20471,7 +20471,7 @@
         <v>2516</v>
       </c>
       <c r="B2516">
-        <v>0.8761270779469319</v>
+        <v>0.8761270779469318</v>
       </c>
     </row>
     <row r="2517" spans="1:2">
@@ -20799,7 +20799,7 @@
         <v>2557</v>
       </c>
       <c r="B2557">
-        <v>0.5119335596232514</v>
+        <v>0.5119335596232513</v>
       </c>
     </row>
     <row r="2558" spans="1:2">
@@ -20839,7 +20839,7 @@
         <v>2562</v>
       </c>
       <c r="B2562">
-        <v>7.0238284338694</v>
+        <v>7.023828433869399</v>
       </c>
     </row>
     <row r="2563" spans="1:2">
@@ -20855,7 +20855,7 @@
         <v>2564</v>
       </c>
       <c r="B2564">
-        <v>5.761424934835655</v>
+        <v>5.761424934835654</v>
       </c>
     </row>
     <row r="2565" spans="1:2">
@@ -20895,7 +20895,7 @@
         <v>2569</v>
       </c>
       <c r="B2569">
-        <v>34.42793412466422</v>
+        <v>34.42793412466421</v>
       </c>
     </row>
     <row r="2570" spans="1:2">
@@ -20951,7 +20951,7 @@
         <v>2576</v>
       </c>
       <c r="B2576">
-        <v>28.69646104997975</v>
+        <v>28.69646104997974</v>
       </c>
     </row>
     <row r="2577" spans="1:2">
@@ -20967,7 +20967,7 @@
         <v>2578</v>
       </c>
       <c r="B2578">
-        <v>18.36541386612867</v>
+        <v>18.36541386612866</v>
       </c>
     </row>
     <row r="2579" spans="1:2">
@@ -20991,7 +20991,7 @@
         <v>2581</v>
       </c>
       <c r="B2581">
-        <v>6.597996214694465</v>
+        <v>6.597996214694464</v>
       </c>
     </row>
     <row r="2582" spans="1:2">
@@ -21007,7 +21007,7 @@
         <v>2583</v>
       </c>
       <c r="B2583">
-        <v>6.936757028283115</v>
+        <v>6.936757028283114</v>
       </c>
     </row>
     <row r="2584" spans="1:2">
@@ -21055,7 +21055,7 @@
         <v>2589</v>
       </c>
       <c r="B2589">
-        <v>7.403238200520378</v>
+        <v>7.403238200520377</v>
       </c>
     </row>
     <row r="2590" spans="1:2">
@@ -21103,7 +21103,7 @@
         <v>2595</v>
       </c>
       <c r="B2595">
-        <v>38.25163196607879</v>
+        <v>38.25163196607878</v>
       </c>
     </row>
     <row r="2596" spans="1:2">
@@ -21439,7 +21439,7 @@
         <v>2637</v>
       </c>
       <c r="B2637">
-        <v>0.3217128712697186</v>
+        <v>0.3217128712697185</v>
       </c>
     </row>
     <row r="2638" spans="1:2">
@@ -21503,7 +21503,7 @@
         <v>2645</v>
       </c>
       <c r="B2645">
-        <v>42.82471245335042</v>
+        <v>42.82471245335041</v>
       </c>
     </row>
     <row r="2646" spans="1:2">
@@ -21535,7 +21535,7 @@
         <v>2649</v>
       </c>
       <c r="B2649">
-        <v>5.275337310111948</v>
+        <v>5.275337310111947</v>
       </c>
     </row>
     <row r="2650" spans="1:2">
@@ -21623,7 +21623,7 @@
         <v>2660</v>
       </c>
       <c r="B2660">
-        <v>8.979638010375888</v>
+        <v>8.979638010375886</v>
       </c>
     </row>
     <row r="2661" spans="1:2">
@@ -21695,7 +21695,7 @@
         <v>2669</v>
       </c>
       <c r="B2669">
-        <v>31.66544651424238</v>
+        <v>31.66544651424237</v>
       </c>
     </row>
     <row r="2670" spans="1:2">
@@ -21847,7 +21847,7 @@
         <v>2688</v>
       </c>
       <c r="B2688">
-        <v>16.06102559623838</v>
+        <v>16.06102559623837</v>
       </c>
     </row>
     <row r="2689" spans="1:2">
@@ -22007,7 +22007,7 @@
         <v>2708</v>
       </c>
       <c r="B2708">
-        <v>10.32609428329771</v>
+        <v>10.3260942832977</v>
       </c>
     </row>
     <row r="2709" spans="1:2">
@@ -22119,7 +22119,7 @@
         <v>2722</v>
       </c>
       <c r="B2722">
-        <v>1.022955668316266</v>
+        <v>1.022955668316265</v>
       </c>
     </row>
     <row r="2723" spans="1:2">
@@ -22319,7 +22319,7 @@
         <v>2747</v>
       </c>
       <c r="B2747">
-        <v>0.2182321251577455</v>
+        <v>0.2182321251577454</v>
       </c>
     </row>
     <row r="2748" spans="1:2">
@@ -22407,7 +22407,7 @@
         <v>2758</v>
       </c>
       <c r="B2758">
-        <v>0.64878015041578</v>
+        <v>0.6487801504157799</v>
       </c>
     </row>
     <row r="2759" spans="1:2">
@@ -22423,7 +22423,7 @@
         <v>2760</v>
       </c>
       <c r="B2760">
-        <v>8.747642976171567</v>
+        <v>8.747642976171566</v>
       </c>
     </row>
     <row r="2761" spans="1:2">
@@ -22479,7 +22479,7 @@
         <v>2767</v>
       </c>
       <c r="B2767">
-        <v>7.393537549140687</v>
+        <v>7.393537549140686</v>
       </c>
     </row>
     <row r="2768" spans="1:2">
@@ -22487,7 +22487,7 @@
         <v>2768</v>
       </c>
       <c r="B2768">
-        <v>2.256192737582434</v>
+        <v>2.256192737582433</v>
       </c>
     </row>
     <row r="2769" spans="1:2">
@@ -22503,7 +22503,7 @@
         <v>2770</v>
       </c>
       <c r="B2770">
-        <v>0.2494934267096739</v>
+        <v>0.2494934267096738</v>
       </c>
     </row>
     <row r="2771" spans="1:2">
@@ -22687,7 +22687,7 @@
         <v>2793</v>
       </c>
       <c r="B2793">
-        <v>0.4320306716426222</v>
+        <v>0.4320306716426221</v>
       </c>
     </row>
     <row r="2794" spans="1:2">
@@ -22879,7 +22879,7 @@
         <v>2817</v>
       </c>
       <c r="B2817">
-        <v>2.832188695546669</v>
+        <v>2.832188695546668</v>
       </c>
     </row>
     <row r="2818" spans="1:2">
@@ -22895,7 +22895,7 @@
         <v>2819</v>
       </c>
       <c r="B2819">
-        <v>0.2649300644580443</v>
+        <v>0.2649300644580442</v>
       </c>
     </row>
     <row r="2820" spans="1:2">
@@ -22983,7 +22983,7 @@
         <v>2830</v>
       </c>
       <c r="B2830">
-        <v>1.291285649893821</v>
+        <v>1.29128564989382</v>
       </c>
     </row>
     <row r="2831" spans="1:2">
@@ -23247,7 +23247,7 @@
         <v>2863</v>
       </c>
       <c r="B2863">
-        <v>9.596200861511626</v>
+        <v>9.596200861511624</v>
       </c>
     </row>
     <row r="2864" spans="1:2">
@@ -23263,7 +23263,7 @@
         <v>2865</v>
       </c>
       <c r="B2865">
-        <v>0.3152447934464627</v>
+        <v>0.3152447934464626</v>
       </c>
     </row>
     <row r="2866" spans="1:2">
@@ -23271,7 +23271,7 @@
         <v>2866</v>
       </c>
       <c r="B2866">
-        <v>0.2204946335762111</v>
+        <v>0.220494633576211</v>
       </c>
     </row>
     <row r="2867" spans="1:2">
@@ -23631,7 +23631,7 @@
         <v>2911</v>
       </c>
       <c r="B2911">
-        <v>0.8238988881470937</v>
+        <v>0.8238988881470936</v>
       </c>
     </row>
     <row r="2912" spans="1:2">
@@ -23791,7 +23791,7 @@
         <v>2931</v>
       </c>
       <c r="B2931">
-        <v>0.8201768859560945</v>
+        <v>0.8201768859560944</v>
       </c>
     </row>
     <row r="2932" spans="1:2">
@@ -24031,7 +24031,7 @@
         <v>2961</v>
       </c>
       <c r="B2961">
-        <v>0.8847052672485495</v>
+        <v>0.8847052672485494</v>
       </c>
     </row>
     <row r="2962" spans="1:2">
@@ -24039,7 +24039,7 @@
         <v>2962</v>
       </c>
       <c r="B2962">
-        <v>0.3786331283985251</v>
+        <v>0.378633128398525</v>
       </c>
     </row>
     <row r="2963" spans="1:2">
@@ -24207,7 +24207,7 @@
         <v>2983</v>
       </c>
       <c r="B2983">
-        <v>14.16550073238453</v>
+        <v>14.16550073238452</v>
       </c>
     </row>
     <row r="2984" spans="1:2">
@@ -24975,7 +24975,7 @@
         <v>3079</v>
       </c>
       <c r="B3079">
-        <v>2.457177925185998</v>
+        <v>2.457177925185997</v>
       </c>
     </row>
     <row r="3080" spans="1:2">
@@ -25039,7 +25039,7 @@
         <v>3087</v>
       </c>
       <c r="B3087">
-        <v>0.0561005374336707</v>
+        <v>0.0561005374336706</v>
       </c>
     </row>
     <row r="3088" spans="1:2">
@@ -25319,7 +25319,7 @@
         <v>3122</v>
       </c>
       <c r="B3122">
-        <v>3.216542570619863</v>
+        <v>3.216542570619862</v>
       </c>
     </row>
     <row r="3123" spans="1:2">
@@ -25911,7 +25911,7 @@
         <v>3196</v>
       </c>
       <c r="B3196">
-        <v>9.594764813422186</v>
+        <v>9.594764813422184</v>
       </c>
     </row>
     <row r="3197" spans="1:2">
@@ -26071,7 +26071,7 @@
         <v>3216</v>
       </c>
       <c r="B3216">
-        <v>6.654998531714097</v>
+        <v>6.654998531714096</v>
       </c>
     </row>
     <row r="3217" spans="1:2">
@@ -26303,7 +26303,7 @@
         <v>3245</v>
       </c>
       <c r="B3245">
-        <v>19.17431923993785</v>
+        <v>19.17431923993784</v>
       </c>
     </row>
     <row r="3246" spans="1:2">
@@ -26311,7 +26311,7 @@
         <v>3246</v>
       </c>
       <c r="B3246">
-        <v>7.415986790702147</v>
+        <v>7.415986790702146</v>
       </c>
     </row>
     <row r="3247" spans="1:2">
@@ -26719,7 +26719,7 @@
         <v>3297</v>
       </c>
       <c r="B3297">
-        <v>4.320101566699159</v>
+        <v>4.320101566699158</v>
       </c>
     </row>
     <row r="3298" spans="1:2">
@@ -26727,7 +26727,7 @@
         <v>3298</v>
       </c>
       <c r="B3298">
-        <v>2.522002308227501</v>
+        <v>2.5220023082275</v>
       </c>
     </row>
     <row r="3299" spans="1:2">
@@ -26743,7 +26743,7 @@
         <v>3300</v>
       </c>
       <c r="B3300">
-        <v>0.5890464113158246</v>
+        <v>0.5890464113158245</v>
       </c>
     </row>
     <row r="3301" spans="1:2">
@@ -26791,7 +26791,7 @@
         <v>3306</v>
       </c>
       <c r="B3306">
-        <v>0.08368526280559251</v>
+        <v>0.08368526280559239</v>
       </c>
     </row>
     <row r="3307" spans="1:2">
@@ -26887,7 +26887,7 @@
         <v>3318</v>
       </c>
       <c r="B3318">
-        <v>29.66816738576531</v>
+        <v>29.6681673857653</v>
       </c>
     </row>
     <row r="3319" spans="1:2">
@@ -26903,7 +26903,7 @@
         <v>3320</v>
       </c>
       <c r="B3320">
-        <v>6.063844939630298</v>
+        <v>6.063844939630297</v>
       </c>
     </row>
     <row r="3321" spans="1:2">
@@ -26927,7 +26927,7 @@
         <v>3323</v>
       </c>
       <c r="B3323">
-        <v>0.4853197786024146</v>
+        <v>0.4853197786024145</v>
       </c>
     </row>
     <row r="3324" spans="1:2">
@@ -27055,7 +27055,7 @@
         <v>3339</v>
       </c>
       <c r="B3339">
-        <v>24.18844233329094</v>
+        <v>24.18844233329093</v>
       </c>
     </row>
     <row r="3340" spans="1:2">
@@ -27111,7 +27111,7 @@
         <v>3346</v>
       </c>
       <c r="B3346">
-        <v>0.3517233456286404</v>
+        <v>0.3517233456286403</v>
       </c>
     </row>
     <row r="3347" spans="1:2">
@@ -27295,7 +27295,7 @@
         <v>3369</v>
       </c>
       <c r="B3369">
-        <v>3.356894291034782</v>
+        <v>3.356894291034781</v>
       </c>
     </row>
     <row r="3370" spans="1:2">
@@ -27335,7 +27335,7 @@
         <v>3374</v>
       </c>
       <c r="B3374">
-        <v>0.1763730817767842</v>
+        <v>0.1763730817767841</v>
       </c>
     </row>
     <row r="3375" spans="1:2">
@@ -27607,7 +27607,7 @@
         <v>3408</v>
       </c>
       <c r="B3408">
-        <v>7.456635743764474</v>
+        <v>7.456635743764473</v>
       </c>
     </row>
     <row r="3409" spans="1:2">
@@ -27631,7 +27631,7 @@
         <v>3411</v>
       </c>
       <c r="B3411">
-        <v>20.92342581287649</v>
+        <v>20.92342581287648</v>
       </c>
     </row>
     <row r="3412" spans="1:2">
@@ -28231,7 +28231,7 @@
         <v>3486</v>
       </c>
       <c r="B3486">
-        <v>1.584040171833412</v>
+        <v>1.584040171833411</v>
       </c>
     </row>
     <row r="3487" spans="1:2">
@@ -29575,7 +29575,7 @@
         <v>3654</v>
       </c>
       <c r="B3654">
-        <v>0.2515185475868238</v>
+        <v>0.2515185475868237</v>
       </c>
     </row>
     <row r="3655" spans="1:2">
@@ -29935,7 +29935,7 @@
         <v>3699</v>
       </c>
       <c r="B3699">
-        <v>6.951703651254843</v>
+        <v>6.951703651254842</v>
       </c>
     </row>
     <row r="3700" spans="1:2">
@@ -31279,7 +31279,7 @@
         <v>3867</v>
       </c>
       <c r="B3867">
-        <v>0.4741479106086441</v>
+        <v>0.474147910608644</v>
       </c>
     </row>
     <row r="3868" spans="1:2">
@@ -42231,7 +42231,7 @@
         <v>5236</v>
       </c>
       <c r="B5236">
-        <v>5.845741472658524</v>
+        <v>5.845741472658523</v>
       </c>
     </row>
     <row r="5237" spans="1:2">
@@ -45295,7 +45295,7 @@
         <v>5619</v>
       </c>
       <c r="B5619">
-        <v>0.6739256455329234</v>
+        <v>0.6739256455329233</v>
       </c>
     </row>
     <row r="5620" spans="1:2">
@@ -46663,7 +46663,7 @@
         <v>5790</v>
       </c>
       <c r="B5790">
-        <v>5.652461122661367</v>
+        <v>5.652461122661366</v>
       </c>
     </row>
     <row r="5791" spans="1:2">
@@ -47599,7 +47599,7 @@
         <v>5907</v>
       </c>
       <c r="B5907">
-        <v>5.773499461628503</v>
+        <v>5.773499461628502</v>
       </c>
     </row>
     <row r="5908" spans="1:2">
@@ -47967,7 +47967,7 @@
         <v>5953</v>
       </c>
       <c r="B5953">
-        <v>0.540132854963246</v>
+        <v>0.5401328549632459</v>
       </c>
     </row>
     <row r="5954" spans="1:2">
@@ -47991,7 +47991,7 @@
         <v>5956</v>
       </c>
       <c r="B5956">
-        <v>6.070028738546052</v>
+        <v>6.070028738546051</v>
       </c>
     </row>
     <row r="5957" spans="1:2">
@@ -47999,7 +47999,7 @@
         <v>5957</v>
       </c>
       <c r="B5957">
-        <v>7.927483674477792</v>
+        <v>7.927483674477791</v>
       </c>
     </row>
     <row r="5958" spans="1:2">
@@ -48199,7 +48199,7 @@
         <v>5982</v>
       </c>
       <c r="B5982">
-        <v>3.790639428253573</v>
+        <v>3.790639428253572</v>
       </c>
     </row>
     <row r="5983" spans="1:2">
@@ -48215,7 +48215,7 @@
         <v>5984</v>
       </c>
       <c r="B5984">
-        <v>0.0361969109140241</v>
+        <v>0.036196910914024</v>
       </c>
     </row>
     <row r="5985" spans="1:2">
@@ -49351,7 +49351,7 @@
         <v>6126</v>
       </c>
       <c r="B6126">
-        <v>4.346741724113476</v>
+        <v>4.346741724113475</v>
       </c>
     </row>
     <row r="6127" spans="1:2">
@@ -49519,7 +49519,7 @@
         <v>6147</v>
       </c>
       <c r="B6147">
-        <v>0.78425809945776</v>
+        <v>0.7842580994577599</v>
       </c>
     </row>
     <row r="6148" spans="1:2">
@@ -49911,7 +49911,7 @@
         <v>6196</v>
       </c>
       <c r="B6196">
-        <v>0.7311096665965251</v>
+        <v>0.731109666596525</v>
       </c>
     </row>
     <row r="6197" spans="1:2">
@@ -50895,7 +50895,7 @@
         <v>6319</v>
       </c>
       <c r="B6319">
-        <v>4.728056452515752</v>
+        <v>4.728056452515751</v>
       </c>
     </row>
     <row r="6320" spans="1:2">
@@ -51039,7 +51039,7 @@
         <v>6337</v>
       </c>
       <c r="B6337">
-        <v>12.57667471048978</v>
+        <v>12.57667471048977</v>
       </c>
     </row>
     <row r="6338" spans="1:2">
@@ -51239,7 +51239,7 @@
         <v>6362</v>
       </c>
       <c r="B6362">
-        <v>3.539799926263327</v>
+        <v>3.539799926263326</v>
       </c>
     </row>
     <row r="6363" spans="1:2">
@@ -51455,7 +51455,7 @@
         <v>6389</v>
       </c>
       <c r="B6389">
-        <v>7.98088121772189</v>
+        <v>7.980881217721889</v>
       </c>
     </row>
     <row r="6390" spans="1:2">
@@ -51495,7 +51495,7 @@
         <v>6394</v>
       </c>
       <c r="B6394">
-        <v>0.2904978749418987</v>
+        <v>0.2904978749418986</v>
       </c>
     </row>
     <row r="6395" spans="1:2">
@@ -51511,7 +51511,7 @@
         <v>6396</v>
       </c>
       <c r="B6396">
-        <v>0.1447331324429054</v>
+        <v>0.1447331324429053</v>
       </c>
     </row>
     <row r="6397" spans="1:2">
@@ -51791,7 +51791,7 @@
         <v>6431</v>
       </c>
       <c r="B6431">
-        <v>0.5959746106697787</v>
+        <v>0.5959746106697786</v>
       </c>
     </row>
     <row r="6432" spans="1:2">
@@ -51847,7 +51847,7 @@
         <v>6438</v>
       </c>
       <c r="B6438">
-        <v>14.86280465467147</v>
+        <v>14.86280465467146</v>
       </c>
     </row>
     <row r="6439" spans="1:2">
@@ -51991,7 +51991,7 @@
         <v>6456</v>
       </c>
       <c r="B6456">
-        <v>3.653951095821921</v>
+        <v>3.65395109582192</v>
       </c>
     </row>
     <row r="6457" spans="1:2">
@@ -51999,7 +51999,7 @@
         <v>6457</v>
       </c>
       <c r="B6457">
-        <v>5.721450045162248</v>
+        <v>5.721450045162247</v>
       </c>
     </row>
     <row r="6458" spans="1:2">
@@ -52007,7 +52007,7 @@
         <v>6458</v>
       </c>
       <c r="B6458">
-        <v>9.98352354620646</v>
+        <v>9.983523546206458</v>
       </c>
     </row>
     <row r="6459" spans="1:2">
@@ -52023,7 +52023,7 @@
         <v>6460</v>
       </c>
       <c r="B6460">
-        <v>9.457255882082285</v>
+        <v>9.457255882082279</v>
       </c>
     </row>
     <row r="6461" spans="1:2">
@@ -52047,7 +52047,7 @@
         <v>6463</v>
       </c>
       <c r="B6463">
-        <v>7.254211577361084</v>
+        <v>7.254211577361083</v>
       </c>
     </row>
     <row r="6464" spans="1:2">
@@ -52071,7 +52071,7 @@
         <v>6466</v>
       </c>
       <c r="B6466">
-        <v>0.1824522543317365</v>
+        <v>0.1824522543317364</v>
       </c>
     </row>
     <row r="6467" spans="1:2">
@@ -52223,7 +52223,7 @@
         <v>6485</v>
       </c>
       <c r="B6485">
-        <v>3.952707712633297</v>
+        <v>3.952707712633296</v>
       </c>
     </row>
     <row r="6486" spans="1:2">
@@ -52231,7 +52231,7 @@
         <v>6486</v>
       </c>
       <c r="B6486">
-        <v>4.232737090074212</v>
+        <v>4.232737090074211</v>
       </c>
     </row>
     <row r="6487" spans="1:2">
@@ -52599,7 +52599,7 @@
         <v>6532</v>
       </c>
       <c r="B6532">
-        <v>0.3870325443665592</v>
+        <v>0.3870325443665591</v>
       </c>
     </row>
     <row r="6533" spans="1:2">
@@ -52959,7 +52959,7 @@
         <v>6577</v>
       </c>
       <c r="B6577">
-        <v>9.448991278792032</v>
+        <v>9.448991278792031</v>
       </c>
     </row>
     <row r="6578" spans="1:2">
@@ -53559,7 +53559,7 @@
         <v>6652</v>
       </c>
       <c r="B6652">
-        <v>5.407043434886356</v>
+        <v>5.407043434886355</v>
       </c>
     </row>
     <row r="6653" spans="1:2">
@@ -53879,7 +53879,7 @@
         <v>6692</v>
       </c>
       <c r="B6692">
-        <v>0.0413464621343426</v>
+        <v>0.0413464621343425</v>
       </c>
     </row>
     <row r="6693" spans="1:2">
@@ -53887,7 +53887,7 @@
         <v>6693</v>
       </c>
       <c r="B6693">
-        <v>0.4552565514565338</v>
+        <v>0.4552565514565337</v>
       </c>
     </row>
     <row r="6694" spans="1:2">
@@ -53903,7 +53903,7 @@
         <v>6695</v>
       </c>
       <c r="B6695">
-        <v>8.582819824028427</v>
+        <v>8.582819824028425</v>
       </c>
     </row>
     <row r="6696" spans="1:2">
@@ -53999,7 +53999,7 @@
         <v>6707</v>
       </c>
       <c r="B6707">
-        <v>0.8300152807239559</v>
+        <v>0.8300152807239558</v>
       </c>
     </row>
     <row r="6708" spans="1:2">
@@ -54047,7 +54047,7 @@
         <v>6713</v>
       </c>
       <c r="B6713">
-        <v>0.5524945913739816</v>
+        <v>0.5524945913739815</v>
       </c>
     </row>
     <row r="6714" spans="1:2">
@@ -54303,7 +54303,7 @@
         <v>6745</v>
       </c>
       <c r="B6745">
-        <v>36.76927865252971</v>
+        <v>36.7692786525297</v>
       </c>
     </row>
     <row r="6746" spans="1:2">
@@ -54351,7 +54351,7 @@
         <v>6751</v>
       </c>
       <c r="B6751">
-        <v>52.76597515578192</v>
+        <v>52.76597515578191</v>
       </c>
     </row>
     <row r="6752" spans="1:2">
@@ -54375,7 +54375,7 @@
         <v>6754</v>
       </c>
       <c r="B6754">
-        <v>4.304773951377171</v>
+        <v>4.30477395137717</v>
       </c>
     </row>
     <row r="6755" spans="1:2">
@@ -54439,7 +54439,7 @@
         <v>6762</v>
       </c>
       <c r="B6762">
-        <v>0.5028014660585639</v>
+        <v>0.5028014660585638</v>
       </c>
     </row>
     <row r="6763" spans="1:2">
@@ -54871,7 +54871,7 @@
         <v>6816</v>
       </c>
       <c r="B6816">
-        <v>0.8840018967557624</v>
+        <v>0.8840018967557622</v>
       </c>
     </row>
     <row r="6817" spans="1:2">
@@ -54903,7 +54903,7 @@
         <v>6820</v>
       </c>
       <c r="B6820">
-        <v>7.78094815514712</v>
+        <v>7.780948155147119</v>
       </c>
     </row>
     <row r="6821" spans="1:2">
@@ -54919,7 +54919,7 @@
         <v>6822</v>
       </c>
       <c r="B6822">
-        <v>13.12460032437103</v>
+        <v>13.12460032437102</v>
       </c>
     </row>
     <row r="6823" spans="1:2">
@@ -55287,7 +55287,7 @@
         <v>6868</v>
       </c>
       <c r="B6868">
-        <v>3.389395869222325</v>
+        <v>3.389395869222324</v>
       </c>
     </row>
     <row r="6869" spans="1:2">
@@ -55511,7 +55511,7 @@
         <v>6896</v>
       </c>
       <c r="B6896">
-        <v>2.937568248918129</v>
+        <v>2.937568248918128</v>
       </c>
     </row>
     <row r="6897" spans="1:2">
@@ -55527,7 +55527,7 @@
         <v>6898</v>
       </c>
       <c r="B6898">
-        <v>0.1393415045446526</v>
+        <v>0.1393415045446525</v>
       </c>
     </row>
     <row r="6899" spans="1:2">
@@ -55631,7 +55631,7 @@
         <v>6911</v>
       </c>
       <c r="B6911">
-        <v>3.945996385847952</v>
+        <v>3.945996385847951</v>
       </c>
     </row>
     <row r="6912" spans="1:2">
@@ -55639,7 +55639,7 @@
         <v>6912</v>
       </c>
       <c r="B6912">
-        <v>6.346277499588236</v>
+        <v>6.346277499588235</v>
       </c>
     </row>
     <row r="6913" spans="1:2">
@@ -55711,7 +55711,7 @@
         <v>6921</v>
       </c>
       <c r="B6921">
-        <v>0.3433561674748589</v>
+        <v>0.3433561674748588</v>
       </c>
     </row>
     <row r="6922" spans="1:2">
@@ -55807,7 +55807,7 @@
         <v>6933</v>
       </c>
       <c r="B6933">
-        <v>0.3400620490003054</v>
+        <v>0.3400620490003053</v>
       </c>
     </row>
     <row r="6934" spans="1:2">
@@ -55855,7 +55855,7 @@
         <v>6939</v>
       </c>
       <c r="B6939">
-        <v>25.20454893143369</v>
+        <v>25.20454893143368</v>
       </c>
     </row>
     <row r="6940" spans="1:2">
@@ -56175,7 +56175,7 @@
         <v>6979</v>
       </c>
       <c r="B6979">
-        <v>5.079302092351374</v>
+        <v>5.079302092351373</v>
       </c>
     </row>
     <row r="6980" spans="1:2">
@@ -56375,7 +56375,7 @@
         <v>7004</v>
       </c>
       <c r="B7004">
-        <v>0.3011510071972386</v>
+        <v>0.3011510071972385</v>
       </c>
     </row>
     <row r="7005" spans="1:2">
@@ -56495,7 +56495,7 @@
         <v>7019</v>
       </c>
       <c r="B7019">
-        <v>0.2165246932865045</v>
+        <v>0.2165246932865044</v>
       </c>
     </row>
     <row r="7020" spans="1:2">
@@ -56615,7 +56615,7 @@
         <v>7034</v>
       </c>
       <c r="B7034">
-        <v>7.5910967363023</v>
+        <v>7.591096736302299</v>
       </c>
     </row>
     <row r="7035" spans="1:2">
@@ -56807,7 +56807,7 @@
         <v>7058</v>
       </c>
       <c r="B7058">
-        <v>5.774642438679282</v>
+        <v>5.774642438679281</v>
       </c>
     </row>
     <row r="7059" spans="1:2">
@@ -57015,7 +57015,7 @@
         <v>7084</v>
       </c>
       <c r="B7084">
-        <v>5.62218688436765</v>
+        <v>5.622186884367649</v>
       </c>
     </row>
     <row r="7085" spans="1:2">
@@ -57575,7 +57575,7 @@
         <v>7154</v>
       </c>
       <c r="B7154">
-        <v>7.172386143366836</v>
+        <v>7.172386143366835</v>
       </c>
     </row>
     <row r="7155" spans="1:2">
@@ -57623,7 +57623,7 @@
         <v>7160</v>
       </c>
       <c r="B7160">
-        <v>6.07049765220791</v>
+        <v>6.070497652207909</v>
       </c>
     </row>
     <row r="7161" spans="1:2">
@@ -57735,7 +57735,7 @@
         <v>7174</v>
       </c>
       <c r="B7174">
-        <v>9.288359042501749</v>
+        <v>9.288359042501748</v>
       </c>
     </row>
     <row r="7175" spans="1:2">
@@ -57831,7 +57831,7 @@
         <v>7186</v>
       </c>
       <c r="B7186">
-        <v>6.364565132400704</v>
+        <v>6.364565132400703</v>
       </c>
     </row>
     <row r="7187" spans="1:2">
@@ -57863,7 +57863,7 @@
         <v>7190</v>
       </c>
       <c r="B7190">
-        <v>2.249789135387684</v>
+        <v>2.249789135387683</v>
       </c>
     </row>
     <row r="7191" spans="1:2">
@@ -57991,7 +57991,7 @@
         <v>7206</v>
       </c>
       <c r="B7206">
-        <v>38.92422999980658</v>
+        <v>38.92422999980657</v>
       </c>
     </row>
     <row r="7207" spans="1:2">
@@ -58215,7 +58215,7 @@
         <v>7234</v>
       </c>
       <c r="B7234">
-        <v>7.946621213302378</v>
+        <v>7.946621213302377</v>
       </c>
     </row>
     <row r="7235" spans="1:2">
@@ -58287,7 +58287,7 @@
         <v>7243</v>
       </c>
       <c r="B7243">
-        <v>6.975588940905743</v>
+        <v>6.975588940905742</v>
       </c>
     </row>
     <row r="7244" spans="1:2">
@@ -58295,7 +58295,7 @@
         <v>7244</v>
       </c>
       <c r="B7244">
-        <v>6.853788617238087</v>
+        <v>6.853788617238086</v>
       </c>
     </row>
     <row r="7245" spans="1:2">
@@ -58543,7 +58543,7 @@
         <v>7275</v>
       </c>
       <c r="B7275">
-        <v>26.73361776854539</v>
+        <v>26.73361776854538</v>
       </c>
     </row>
     <row r="7276" spans="1:2">
@@ -58583,7 +58583,7 @@
         <v>7280</v>
       </c>
       <c r="B7280">
-        <v>24.56618159502155</v>
+        <v>24.56618159502154</v>
       </c>
     </row>
     <row r="7281" spans="1:2">
@@ -58591,7 +58591,7 @@
         <v>7281</v>
       </c>
       <c r="B7281">
-        <v>16.28141501731171</v>
+        <v>16.2814150173117</v>
       </c>
     </row>
     <row r="7282" spans="1:2">
@@ -58735,7 +58735,7 @@
         <v>7299</v>
       </c>
       <c r="B7299">
-        <v>31.04003291773907</v>
+        <v>31.04003291773906</v>
       </c>
     </row>
     <row r="7300" spans="1:2">
@@ -58759,7 +58759,7 @@
         <v>7302</v>
       </c>
       <c r="B7302">
-        <v>46.8758334207662</v>
+        <v>46.87583342076619</v>
       </c>
     </row>
     <row r="7303" spans="1:2">
@@ -58871,7 +58871,7 @@
         <v>7316</v>
       </c>
       <c r="B7316">
-        <v>0.979194300823354</v>
+        <v>0.9791943008233538</v>
       </c>
     </row>
     <row r="7317" spans="1:2">
@@ -58919,7 +58919,7 @@
         <v>7322</v>
       </c>
       <c r="B7322">
-        <v>28.12503113879787</v>
+        <v>28.12503113879786</v>
       </c>
     </row>
     <row r="7323" spans="1:2">
@@ -58935,7 +58935,7 @@
         <v>7324</v>
       </c>
       <c r="B7324">
-        <v>35.6479888586114</v>
+        <v>35.64798885861139</v>
       </c>
     </row>
     <row r="7325" spans="1:2">
@@ -58983,7 +58983,7 @@
         <v>7330</v>
       </c>
       <c r="B7330">
-        <v>5.445670197781922</v>
+        <v>5.445670197781921</v>
       </c>
     </row>
     <row r="7331" spans="1:2">
@@ -59135,7 +59135,7 @@
         <v>7349</v>
       </c>
       <c r="B7349">
-        <v>37.43396376821364</v>
+        <v>37.43396376821363</v>
       </c>
     </row>
     <row r="7350" spans="1:2">
@@ -59263,7 +59263,7 @@
         <v>7365</v>
       </c>
       <c r="B7365">
-        <v>0.3760013504713462</v>
+        <v>0.3760013504713461</v>
       </c>
     </row>
     <row r="7366" spans="1:2">
@@ -59311,7 +59311,7 @@
         <v>7371</v>
       </c>
       <c r="B7371">
-        <v>12.75157950636287</v>
+        <v>12.75157950636286</v>
       </c>
     </row>
     <row r="7372" spans="1:2">
@@ -59343,7 +59343,7 @@
         <v>7375</v>
       </c>
       <c r="B7375">
-        <v>15.13005613482675</v>
+        <v>15.13005613482674</v>
       </c>
     </row>
     <row r="7376" spans="1:2">
@@ -59367,7 +59367,7 @@
         <v>7378</v>
       </c>
       <c r="B7378">
-        <v>0.2895752873121928</v>
+        <v>0.2895752873121927</v>
       </c>
     </row>
     <row r="7379" spans="1:2">
@@ -59383,7 +59383,7 @@
         <v>7380</v>
       </c>
       <c r="B7380">
-        <v>0.095866174385474</v>
+        <v>0.0958661743854739</v>
       </c>
     </row>
     <row r="7381" spans="1:2">
@@ -59495,7 +59495,7 @@
         <v>7394</v>
       </c>
       <c r="B7394">
-        <v>12.56468810500853</v>
+        <v>12.56468810500852</v>
       </c>
     </row>
     <row r="7395" spans="1:2">
@@ -59503,7 +59503,7 @@
         <v>7395</v>
       </c>
       <c r="B7395">
-        <v>18.86234511928285</v>
+        <v>18.86234511928284</v>
       </c>
     </row>
     <row r="7396" spans="1:2">
@@ -59519,7 +59519,7 @@
         <v>7397</v>
       </c>
       <c r="B7397">
-        <v>24.32674255643523</v>
+        <v>24.32674255643522</v>
       </c>
     </row>
     <row r="7398" spans="1:2">
@@ -59551,7 +59551,7 @@
         <v>7401</v>
       </c>
       <c r="B7401">
-        <v>9.28281999987105</v>
+        <v>9.282819999871048</v>
       </c>
     </row>
     <row r="7402" spans="1:2">
@@ -59623,7 +59623,7 @@
         <v>7410</v>
       </c>
       <c r="B7410">
-        <v>11.165625580647</v>
+        <v>11.16562558064699</v>
       </c>
     </row>
     <row r="7411" spans="1:2">
@@ -59663,7 +59663,7 @@
         <v>7415</v>
       </c>
       <c r="B7415">
-        <v>17.39974479373954</v>
+        <v>17.39974479373953</v>
       </c>
     </row>
     <row r="7416" spans="1:2">
@@ -59727,7 +59727,7 @@
         <v>7423</v>
       </c>
       <c r="B7423">
-        <v>61.3843151896961</v>
+        <v>61.38431518969609</v>
       </c>
     </row>
     <row r="7424" spans="1:2">
@@ -59943,7 +59943,7 @@
         <v>7450</v>
       </c>
       <c r="B7450">
-        <v>13.83356847399669</v>
+        <v>13.83356847399668</v>
       </c>
     </row>
     <row r="7451" spans="1:2">
@@ -60047,7 +60047,7 @@
         <v>7463</v>
       </c>
       <c r="B7463">
-        <v>9.066709415962174</v>
+        <v>9.066709415962173</v>
       </c>
     </row>
     <row r="7464" spans="1:2">
@@ -60151,7 +60151,7 @@
         <v>7476</v>
       </c>
       <c r="B7476">
-        <v>0.700313761853991</v>
+        <v>0.7003137618539909</v>
       </c>
     </row>
     <row r="7477" spans="1:2">
@@ -60191,7 +60191,7 @@
         <v>7481</v>
       </c>
       <c r="B7481">
-        <v>0.8084159451746147</v>
+        <v>0.8084159451746146</v>
       </c>
     </row>
     <row r="7482" spans="1:2">
@@ -60311,7 +60311,7 @@
         <v>7496</v>
       </c>
       <c r="B7496">
-        <v>14.15368996952648</v>
+        <v>14.15368996952647</v>
       </c>
     </row>
     <row r="7497" spans="1:2">
@@ -60319,7 +60319,7 @@
         <v>7497</v>
       </c>
       <c r="B7497">
-        <v>7.404674248609818</v>
+        <v>7.404674248609817</v>
       </c>
     </row>
     <row r="7498" spans="1:2">
@@ -60391,7 +60391,7 @@
         <v>7506</v>
       </c>
       <c r="B7506">
-        <v>4.099331153275568</v>
+        <v>4.099331153275567</v>
       </c>
     </row>
     <row r="7507" spans="1:2">
@@ -60455,7 +60455,7 @@
         <v>7514</v>
       </c>
       <c r="B7514">
-        <v>0.5377707023916356</v>
+        <v>0.5377707023916355</v>
       </c>
     </row>
     <row r="7515" spans="1:2">
@@ -60583,7 +60583,7 @@
         <v>7530</v>
       </c>
       <c r="B7530">
-        <v>10.62300455256552</v>
+        <v>10.62300455256551</v>
       </c>
     </row>
     <row r="7531" spans="1:2">
@@ -60599,7 +60599,7 @@
         <v>7532</v>
       </c>
       <c r="B7532">
-        <v>4.377631411588381</v>
+        <v>4.37763141158838</v>
       </c>
     </row>
     <row r="7533" spans="1:2">
@@ -60615,7 +60615,7 @@
         <v>7534</v>
       </c>
       <c r="B7534">
-        <v>5.446725253521103</v>
+        <v>5.446725253521102</v>
       </c>
     </row>
     <row r="7535" spans="1:2">
@@ -60935,7 +60935,7 @@
         <v>7574</v>
       </c>
       <c r="B7574">
-        <v>0.3700139091514949</v>
+        <v>0.3700139091514948</v>
       </c>
     </row>
     <row r="7575" spans="1:2">
@@ -60943,7 +60943,7 @@
         <v>7575</v>
       </c>
       <c r="B7575">
-        <v>0.4739984443789268</v>
+        <v>0.4739984443789267</v>
       </c>
     </row>
     <row r="7576" spans="1:2">
@@ -61183,7 +61183,7 @@
         <v>7605</v>
       </c>
       <c r="B7605">
-        <v>5.603928558659049</v>
+        <v>5.603928558659048</v>
       </c>
     </row>
     <row r="7606" spans="1:2">
@@ -61215,7 +61215,7 @@
         <v>7609</v>
       </c>
       <c r="B7609">
-        <v>19.03921349111497</v>
+        <v>19.03921349111496</v>
       </c>
     </row>
     <row r="7610" spans="1:2">
@@ -61255,7 +61255,7 @@
         <v>7614</v>
       </c>
       <c r="B7614">
-        <v>27.35988127106082</v>
+        <v>27.35988127106081</v>
       </c>
     </row>
     <row r="7615" spans="1:2">
@@ -61399,7 +61399,7 @@
         <v>7632</v>
       </c>
       <c r="B7632">
-        <v>32.31078894137466</v>
+        <v>32.31078894137465</v>
       </c>
     </row>
     <row r="7633" spans="1:2">
@@ -61439,7 +61439,7 @@
         <v>7637</v>
       </c>
       <c r="B7637">
-        <v>48.07537318200709</v>
+        <v>48.07537318200708</v>
       </c>
     </row>
     <row r="7638" spans="1:2">
@@ -61719,7 +61719,7 @@
         <v>7672</v>
       </c>
       <c r="B7672">
-        <v>18.04722663945405</v>
+        <v>18.04722663945404</v>
       </c>
     </row>
     <row r="7673" spans="1:2">
@@ -61943,7 +61943,7 @@
         <v>7700</v>
       </c>
       <c r="B7700">
-        <v>18.12600413464622</v>
+        <v>18.12600413464621</v>
       </c>
     </row>
     <row r="7701" spans="1:2">
@@ -61959,7 +61959,7 @@
         <v>7702</v>
       </c>
       <c r="B7702">
-        <v>22.8121514286334</v>
+        <v>22.81215142863339</v>
       </c>
     </row>
     <row r="7703" spans="1:2">
@@ -61991,7 +61991,7 @@
         <v>7706</v>
       </c>
       <c r="B7706">
-        <v>44.58812089297574</v>
+        <v>44.58812089297573</v>
       </c>
     </row>
     <row r="7707" spans="1:2">
@@ -62015,7 +62015,7 @@
         <v>7709</v>
       </c>
       <c r="B7709">
-        <v>53.53264899292</v>
+        <v>53.53264899291999</v>
       </c>
     </row>
     <row r="7710" spans="1:2">
@@ -62023,7 +62023,7 @@
         <v>7710</v>
       </c>
       <c r="B7710">
-        <v>54.57949874301832</v>
+        <v>54.57949874301831</v>
       </c>
     </row>
     <row r="7711" spans="1:2">
@@ -62135,7 +62135,7 @@
         <v>7724</v>
       </c>
       <c r="B7724">
-        <v>30.92280450227453</v>
+        <v>30.92280450227452</v>
       </c>
     </row>
     <row r="7725" spans="1:2">
@@ -62167,7 +62167,7 @@
         <v>7728</v>
       </c>
       <c r="B7728">
-        <v>38.58045767145682</v>
+        <v>38.58045767145681</v>
       </c>
     </row>
     <row r="7729" spans="1:2">
@@ -62207,7 +62207,7 @@
         <v>7733</v>
       </c>
       <c r="B7733">
-        <v>51.58372658582205</v>
+        <v>51.58372658582204</v>
       </c>
     </row>
     <row r="7734" spans="1:2">
@@ -62215,7 +62215,7 @@
         <v>7734</v>
       </c>
       <c r="B7734">
-        <v>57.95802167670631</v>
+        <v>57.9580216767063</v>
       </c>
     </row>
     <row r="7735" spans="1:2">
@@ -62223,7 +62223,7 @@
         <v>7735</v>
       </c>
       <c r="B7735">
-        <v>63.49149595767117</v>
+        <v>63.49149595767116</v>
       </c>
     </row>
     <row r="7736" spans="1:2">
@@ -62271,7 +62271,7 @@
         <v>7741</v>
       </c>
       <c r="B7741">
-        <v>40.36643258105906</v>
+        <v>40.36643258105905</v>
       </c>
     </row>
     <row r="7742" spans="1:2">
@@ -62335,7 +62335,7 @@
         <v>7749</v>
       </c>
       <c r="B7749">
-        <v>40.54989505126106</v>
+        <v>40.54989505126105</v>
       </c>
     </row>
     <row r="7750" spans="1:2">
@@ -62391,7 +62391,7 @@
         <v>7756</v>
       </c>
       <c r="B7756">
-        <v>67.5232742365353</v>
+        <v>67.52327423653529</v>
       </c>
     </row>
     <row r="7757" spans="1:2">
@@ -62503,7 +62503,7 @@
         <v>7770</v>
       </c>
       <c r="B7770">
-        <v>43.18137990740128</v>
+        <v>43.18137990740127</v>
       </c>
     </row>
     <row r="7771" spans="1:2">
@@ -62511,7 +62511,7 @@
         <v>7771</v>
       </c>
       <c r="B7771">
-        <v>40.09651415445196</v>
+        <v>40.09651415445195</v>
       </c>
     </row>
     <row r="7772" spans="1:2">
@@ -62559,7 +62559,7 @@
         <v>7777</v>
       </c>
       <c r="B7777">
-        <v>53.89986700436266</v>
+        <v>53.89986700436265</v>
       </c>
     </row>
     <row r="7778" spans="1:2">
@@ -62567,7 +62567,7 @@
         <v>7778</v>
       </c>
       <c r="B7778">
-        <v>59.13997717562752</v>
+        <v>59.13997717562751</v>
       </c>
     </row>
     <row r="7779" spans="1:2">
@@ -62599,7 +62599,7 @@
         <v>7782</v>
       </c>
       <c r="B7782">
-        <v>72.41462987179315</v>
+        <v>72.41462987179314</v>
       </c>
     </row>
     <row r="7783" spans="1:2">
@@ -62631,7 +62631,7 @@
         <v>7786</v>
       </c>
       <c r="B7786">
-        <v>50.48295176461004</v>
+        <v>50.48295176461003</v>
       </c>
     </row>
     <row r="7787" spans="1:2">
@@ -62727,7 +62727,7 @@
         <v>7798</v>
       </c>
       <c r="B7798">
-        <v>53.19620344053677</v>
+        <v>53.19620344053676</v>
       </c>
     </row>
     <row r="7799" spans="1:2">
@@ -62751,7 +62751,7 @@
         <v>7801</v>
       </c>
       <c r="B7801">
-        <v>68.98042344075951</v>
+        <v>68.98042344075949</v>
       </c>
     </row>
     <row r="7802" spans="1:2">
@@ -62783,7 +62783,7 @@
         <v>7805</v>
       </c>
       <c r="B7805">
-        <v>76.82241829325979</v>
+        <v>76.82241829325977</v>
       </c>
     </row>
     <row r="7806" spans="1:2">
@@ -62799,7 +62799,7 @@
         <v>7807</v>
       </c>
       <c r="B7807">
-        <v>77.69870069885721</v>
+        <v>77.69870069885719</v>
       </c>
     </row>
     <row r="7808" spans="1:2">
@@ -62879,7 +62879,7 @@
         <v>7817</v>
       </c>
       <c r="B7817">
-        <v>38.85828901610778</v>
+        <v>38.85828901610777</v>
       </c>
     </row>
     <row r="7818" spans="1:2">
@@ -62903,7 +62903,7 @@
         <v>7820</v>
       </c>
       <c r="B7820">
-        <v>50.12130210290194</v>
+        <v>50.12130210290193</v>
       </c>
     </row>
     <row r="7821" spans="1:2">
@@ -63023,7 +63023,7 @@
         <v>7835</v>
       </c>
       <c r="B7835">
-        <v>30.97526421819491</v>
+        <v>30.9752642181949</v>
       </c>
     </row>
     <row r="7836" spans="1:2">
@@ -63175,7 +63175,7 @@
         <v>7854</v>
       </c>
       <c r="B7854">
-        <v>84.7558513098224</v>
+        <v>84.75585130982239</v>
       </c>
     </row>
     <row r="7855" spans="1:2">
@@ -63183,7 +63183,7 @@
         <v>7855</v>
       </c>
       <c r="B7855">
-        <v>100.6400085342287</v>
+        <v>100.6400085342286</v>
       </c>
     </row>
     <row r="7856" spans="1:2">
@@ -63335,7 +63335,7 @@
         <v>7874</v>
       </c>
       <c r="B7874">
-        <v>57.10196117277652</v>
+        <v>57.10196117277651</v>
       </c>
     </row>
     <row r="7875" spans="1:2">
@@ -63351,7 +63351,7 @@
         <v>7876</v>
       </c>
       <c r="B7876">
-        <v>62.89011418633809</v>
+        <v>62.89011418633808</v>
       </c>
     </row>
     <row r="7877" spans="1:2">
@@ -63415,7 +63415,7 @@
         <v>7884</v>
       </c>
       <c r="B7884">
-        <v>42.76902895600477</v>
+        <v>42.76902895600476</v>
       </c>
     </row>
     <row r="7885" spans="1:2">
@@ -63423,7 +63423,7 @@
         <v>7885</v>
       </c>
       <c r="B7885">
-        <v>43.68839280428541</v>
+        <v>43.6883928042854</v>
       </c>
     </row>
     <row r="7886" spans="1:2">
@@ -63447,7 +63447,7 @@
         <v>7888</v>
       </c>
       <c r="B7888">
-        <v>51.24757410447749</v>
+        <v>51.24757410447748</v>
       </c>
     </row>
     <row r="7889" spans="1:2">
@@ -63543,7 +63543,7 @@
         <v>7900</v>
       </c>
       <c r="B7900">
-        <v>30.69596751835065</v>
+        <v>30.69596751835064</v>
       </c>
     </row>
     <row r="7901" spans="1:2">
@@ -63607,7 +63607,7 @@
         <v>7908</v>
       </c>
       <c r="B7908">
-        <v>23.94255573185407</v>
+        <v>23.94255573185406</v>
       </c>
     </row>
     <row r="7909" spans="1:2">
@@ -63647,7 +63647,7 @@
         <v>7913</v>
       </c>
       <c r="B7913">
-        <v>13.14743055828275</v>
+        <v>13.14743055828274</v>
       </c>
     </row>
     <row r="7914" spans="1:2">
@@ -63767,7 +63767,7 @@
         <v>7928</v>
       </c>
       <c r="B7928">
-        <v>38.46850453468819</v>
+        <v>38.46850453468818</v>
       </c>
     </row>
     <row r="7929" spans="1:2">
@@ -64127,7 +64127,7 @@
         <v>7973</v>
       </c>
       <c r="B7973">
-        <v>56.35052702964883</v>
+        <v>56.35052702964882</v>
       </c>
     </row>
     <row r="7974" spans="1:2">
@@ -64271,7 +64271,7 @@
         <v>7991</v>
       </c>
       <c r="B7991">
-        <v>24.57954563438451</v>
+        <v>24.5795456343845</v>
       </c>
     </row>
     <row r="7992" spans="1:2">
@@ -64311,7 +64311,7 @@
         <v>7996</v>
       </c>
       <c r="B7996">
-        <v>45.47466078492631</v>
+        <v>45.4746607849263</v>
       </c>
     </row>
     <row r="7997" spans="1:2">
@@ -64615,7 +64615,7 @@
         <v>8034</v>
       </c>
       <c r="B8034">
-        <v>7.238444355481103</v>
+        <v>7.238444355481102</v>
       </c>
     </row>
     <row r="8035" spans="1:2">
@@ -64687,7 +64687,7 @@
         <v>8043</v>
       </c>
       <c r="B8043">
-        <v>42.01964631014771</v>
+        <v>42.0196463101477</v>
       </c>
     </row>
     <row r="8044" spans="1:2">
@@ -64727,7 +64727,7 @@
         <v>8048</v>
       </c>
       <c r="B8048">
-        <v>44.71267608440681</v>
+        <v>44.7126760844068</v>
       </c>
     </row>
     <row r="8049" spans="1:2">
@@ -64743,7 +64743,7 @@
         <v>8050</v>
       </c>
       <c r="B8050">
-        <v>8.066838953361263</v>
+        <v>8.066838953361261</v>
       </c>
     </row>
     <row r="8051" spans="1:2">
@@ -64863,7 +64863,7 @@
         <v>8065</v>
       </c>
       <c r="B8065">
-        <v>23.60259332700691</v>
+        <v>23.6025933270069</v>
       </c>
     </row>
     <row r="8066" spans="1:2">
@@ -65063,7 +65063,7 @@
         <v>8090</v>
       </c>
       <c r="B8090">
-        <v>6.983296709222536</v>
+        <v>6.983296709222535</v>
       </c>
     </row>
     <row r="8091" spans="1:2">
@@ -65071,7 +65071,7 @@
         <v>8091</v>
       </c>
       <c r="B8091">
-        <v>7.071423170548003</v>
+        <v>7.071423170548002</v>
       </c>
     </row>
     <row r="8092" spans="1:2">
@@ -65087,7 +65087,7 @@
         <v>8093</v>
       </c>
       <c r="B8093">
-        <v>8.74565009310867</v>
+        <v>8.745650093108669</v>
       </c>
     </row>
     <row r="8094" spans="1:2">
@@ -65095,7 +65095,7 @@
         <v>8094</v>
       </c>
       <c r="B8094">
-        <v>8.875040956677655</v>
+        <v>8.875040956677653</v>
       </c>
     </row>
     <row r="8095" spans="1:2">
@@ -65127,7 +65127,7 @@
         <v>8098</v>
       </c>
       <c r="B8098">
-        <v>0.1895237654235961</v>
+        <v>0.189523765423596</v>
       </c>
     </row>
     <row r="8099" spans="1:2">
@@ -65279,7 +65279,7 @@
         <v>8117</v>
       </c>
       <c r="B8117">
-        <v>5.970296664089596</v>
+        <v>5.970296664089595</v>
       </c>
     </row>
     <row r="8118" spans="1:2">
@@ -65303,7 +65303,7 @@
         <v>8120</v>
       </c>
       <c r="B8120">
-        <v>6.775362807292312</v>
+        <v>6.775362807292311</v>
       </c>
     </row>
     <row r="8121" spans="1:2">
@@ -65879,7 +65879,7 @@
         <v>8192</v>
       </c>
       <c r="B8192">
-        <v>17.09404239331189</v>
+        <v>17.09404239331188</v>
       </c>
     </row>
     <row r="8193" spans="1:2">
@@ -66055,7 +66055,7 @@
         <v>8214</v>
       </c>
       <c r="B8214">
-        <v>32.236935039632</v>
+        <v>32.23693503963199</v>
       </c>
     </row>
     <row r="8215" spans="1:2">
@@ -66111,7 +66111,7 @@
         <v>8221</v>
       </c>
       <c r="B8221">
-        <v>3.658698846648235</v>
+        <v>3.658698846648234</v>
       </c>
     </row>
     <row r="8222" spans="1:2">
@@ -66135,7 +66135,7 @@
         <v>8224</v>
       </c>
       <c r="B8224">
-        <v>9.576975401375442</v>
+        <v>9.57697540137544</v>
       </c>
     </row>
     <row r="8225" spans="1:2">
@@ -66207,7 +66207,7 @@
         <v>8233</v>
       </c>
       <c r="B8233">
-        <v>39.17685723513266</v>
+        <v>39.17685723513265</v>
       </c>
     </row>
     <row r="8234" spans="1:2">
@@ -66223,7 +66223,7 @@
         <v>8235</v>
       </c>
       <c r="B8235">
-        <v>49.46159919487525</v>
+        <v>49.46159919487524</v>
       </c>
     </row>
     <row r="8236" spans="1:2">
@@ -66263,7 +66263,7 @@
         <v>8240</v>
       </c>
       <c r="B8240">
-        <v>56.66352689893915</v>
+        <v>56.66352689893914</v>
       </c>
     </row>
     <row r="8241" spans="1:2">
@@ -66391,7 +66391,7 @@
         <v>8256</v>
       </c>
       <c r="B8256">
-        <v>21.31564278391697</v>
+        <v>21.31564278391696</v>
       </c>
     </row>
     <row r="8257" spans="1:2">
@@ -66439,7 +66439,7 @@
         <v>8262</v>
       </c>
       <c r="B8262">
-        <v>39.88726143284776</v>
+        <v>39.88726143284775</v>
       </c>
     </row>
     <row r="8263" spans="1:2">
@@ -66607,7 +66607,7 @@
         <v>8283</v>
       </c>
       <c r="B8283">
-        <v>53.7213867418179</v>
+        <v>53.72138674181789</v>
       </c>
     </row>
     <row r="8284" spans="1:2">
@@ -66639,7 +66639,7 @@
         <v>8287</v>
       </c>
       <c r="B8287">
-        <v>66.57812013685246</v>
+        <v>66.57812013685245</v>
       </c>
     </row>
     <row r="8288" spans="1:2">
@@ -66687,7 +66687,7 @@
         <v>8293</v>
       </c>
       <c r="B8293">
-        <v>21.96432622088999</v>
+        <v>21.96432622088998</v>
       </c>
     </row>
     <row r="8294" spans="1:2">
@@ -66775,7 +66775,7 @@
         <v>8304</v>
       </c>
       <c r="B8304">
-        <v>31.97522260210742</v>
+        <v>31.97522260210741</v>
       </c>
     </row>
     <row r="8305" spans="1:2">
@@ -66783,7 +66783,7 @@
         <v>8305</v>
       </c>
       <c r="B8305">
-        <v>36.0225336460206</v>
+        <v>36.02253364602059</v>
       </c>
     </row>
     <row r="8306" spans="1:2">
@@ -66855,7 +66855,7 @@
         <v>8314</v>
       </c>
       <c r="B8314">
-        <v>44.06293759169461</v>
+        <v>44.0629375916946</v>
       </c>
     </row>
     <row r="8315" spans="1:2">
@@ -66895,7 +66895,7 @@
         <v>8319</v>
       </c>
       <c r="B8319">
-        <v>31.67453171644088</v>
+        <v>31.67453171644087</v>
       </c>
     </row>
     <row r="8320" spans="1:2">
@@ -66927,7 +66927,7 @@
         <v>8323</v>
       </c>
       <c r="B8323">
-        <v>32.49923361923391</v>
+        <v>32.4992336192339</v>
       </c>
     </row>
     <row r="8324" spans="1:2">
@@ -66959,7 +66959,7 @@
         <v>8327</v>
       </c>
       <c r="B8327">
-        <v>24.38972352264355</v>
+        <v>24.38972352264354</v>
       </c>
     </row>
     <row r="8328" spans="1:2">
@@ -66999,7 +66999,7 @@
         <v>8332</v>
       </c>
       <c r="B8332">
-        <v>49.81035373088225</v>
+        <v>49.81035373088224</v>
       </c>
     </row>
     <row r="8333" spans="1:2">
@@ -67015,7 +67015,7 @@
         <v>8334</v>
       </c>
       <c r="B8334">
-        <v>55.2984020008546</v>
+        <v>55.29840200085459</v>
       </c>
     </row>
     <row r="8335" spans="1:2">
@@ -67191,7 +67191,7 @@
         <v>8356</v>
       </c>
       <c r="B8356">
-        <v>66.44301438802958</v>
+        <v>66.44301438802957</v>
       </c>
     </row>
     <row r="8357" spans="1:2">
@@ -67207,7 +67207,7 @@
         <v>8358</v>
       </c>
       <c r="B8358">
-        <v>77.70397597755311</v>
+        <v>77.7039759775531</v>
       </c>
     </row>
     <row r="8359" spans="1:2">
@@ -67223,7 +67223,7 @@
         <v>8360</v>
       </c>
       <c r="B8360">
-        <v>74.08366943696952</v>
+        <v>74.0836694369695</v>
       </c>
     </row>
     <row r="8361" spans="1:2">
@@ -67247,7 +67247,7 @@
         <v>8363</v>
       </c>
       <c r="B8363">
-        <v>17.19116613552426</v>
+        <v>17.19116613552425</v>
       </c>
     </row>
     <row r="8364" spans="1:2">
@@ -67311,7 +67311,7 @@
         <v>8371</v>
       </c>
       <c r="B8371">
-        <v>25.35483576005923</v>
+        <v>25.35483576005922</v>
       </c>
     </row>
     <row r="8372" spans="1:2">
@@ -67599,7 +67599,7 @@
         <v>8407</v>
       </c>
       <c r="B8407">
-        <v>41.82387485632193</v>
+        <v>41.82387485632192</v>
       </c>
     </row>
     <row r="8408" spans="1:2">
@@ -67663,7 +67663,7 @@
         <v>8415</v>
       </c>
       <c r="B8415">
-        <v>13.11566165769186</v>
+        <v>13.11566165769185</v>
       </c>
     </row>
     <row r="8416" spans="1:2">
@@ -67767,7 +67767,7 @@
         <v>8428</v>
       </c>
       <c r="B8428">
-        <v>53.46377729883458</v>
+        <v>53.46377729883457</v>
       </c>
     </row>
     <row r="8429" spans="1:2">
@@ -67887,7 +67887,7 @@
         <v>8443</v>
       </c>
       <c r="B8443">
-        <v>33.79871060465831</v>
+        <v>33.7987106046583</v>
       </c>
     </row>
     <row r="8444" spans="1:2">
@@ -67951,7 +67951,7 @@
         <v>8451</v>
       </c>
       <c r="B8451">
-        <v>48.04518686502497</v>
+        <v>48.04518686502496</v>
       </c>
     </row>
     <row r="8452" spans="1:2">
@@ -67959,7 +67959,7 @@
         <v>8452</v>
       </c>
       <c r="B8452">
-        <v>45.08487630350672</v>
+        <v>45.08487630350671</v>
       </c>
     </row>
     <row r="8453" spans="1:2">
@@ -67991,7 +67991,7 @@
         <v>8456</v>
       </c>
       <c r="B8456">
-        <v>54.72017284157577</v>
+        <v>54.72017284157576</v>
       </c>
     </row>
     <row r="8457" spans="1:2">
@@ -68159,7 +68159,7 @@
         <v>8477</v>
       </c>
       <c r="B8477">
-        <v>30.511332763994</v>
+        <v>30.51133276399399</v>
       </c>
     </row>
     <row r="8478" spans="1:2">
@@ -68255,7 +68255,7 @@
         <v>8489</v>
       </c>
       <c r="B8489">
-        <v>9.58403841340718</v>
+        <v>9.584038413407178</v>
       </c>
     </row>
     <row r="8490" spans="1:2">
@@ -68383,7 +68383,7 @@
         <v>8505</v>
       </c>
       <c r="B8505">
-        <v>27.08606499963953</v>
+        <v>27.08606499963952</v>
       </c>
     </row>
     <row r="8506" spans="1:2">
@@ -68551,7 +68551,7 @@
         <v>8526</v>
       </c>
       <c r="B8526">
-        <v>6.315827418671322</v>
+        <v>6.315827418671321</v>
       </c>
     </row>
     <row r="8527" spans="1:2">
@@ -68631,7 +68631,7 @@
         <v>8536</v>
       </c>
       <c r="B8536">
-        <v>23.09593211536918</v>
+        <v>23.09593211536917</v>
       </c>
     </row>
     <row r="8537" spans="1:2">
@@ -68783,7 +68783,7 @@
         <v>8555</v>
       </c>
       <c r="B8555">
-        <v>61.43032734276593</v>
+        <v>61.43032734276592</v>
       </c>
     </row>
     <row r="8556" spans="1:2">
@@ -69031,7 +69031,7 @@
         <v>8586</v>
       </c>
       <c r="B8586">
-        <v>66.21383283579641</v>
+        <v>66.2138328357964</v>
       </c>
     </row>
     <row r="8587" spans="1:2">
@@ -69063,7 +69063,7 @@
         <v>8590</v>
       </c>
       <c r="B8590">
-        <v>54.48307837129874</v>
+        <v>54.48307837129873</v>
       </c>
     </row>
     <row r="8591" spans="1:2">
@@ -69071,7 +69071,7 @@
         <v>8591</v>
       </c>
       <c r="B8591">
-        <v>55.59381760782524</v>
+        <v>55.59381760782523</v>
       </c>
     </row>
     <row r="8592" spans="1:2">
@@ -69303,7 +69303,7 @@
         <v>8620</v>
       </c>
       <c r="B8620">
-        <v>84.04251640172069</v>
+        <v>84.04251640172068</v>
       </c>
     </row>
     <row r="8621" spans="1:2">
@@ -69375,7 +69375,7 @@
         <v>8629</v>
       </c>
       <c r="B8629">
-        <v>51.72381454230217</v>
+        <v>51.72381454230216</v>
       </c>
     </row>
     <row r="8630" spans="1:2">
@@ -69415,7 +69415,7 @@
         <v>8634</v>
       </c>
       <c r="B8634">
-        <v>63.88391807843871</v>
+        <v>63.8839180784387</v>
       </c>
     </row>
     <row r="8635" spans="1:2">
@@ -69439,7 +69439,7 @@
         <v>8637</v>
       </c>
       <c r="B8637">
-        <v>48.21839184887382</v>
+        <v>48.21839184887381</v>
       </c>
     </row>
     <row r="8638" spans="1:2">
@@ -69455,7 +69455,7 @@
         <v>8639</v>
       </c>
       <c r="B8639">
-        <v>52.41399683834964</v>
+        <v>52.41399683834963</v>
       </c>
     </row>
     <row r="8640" spans="1:2">
@@ -69463,7 +69463,7 @@
         <v>8640</v>
       </c>
       <c r="B8640">
-        <v>57.1529555335036</v>
+        <v>57.15295553350359</v>
       </c>
     </row>
     <row r="8641" spans="1:2">
@@ -69591,7 +69591,7 @@
         <v>8656</v>
       </c>
       <c r="B8656">
-        <v>34.62136101018071</v>
+        <v>34.6213610101807</v>
       </c>
     </row>
     <row r="8657" spans="1:2">
@@ -69623,7 +69623,7 @@
         <v>8660</v>
       </c>
       <c r="B8660">
-        <v>38.31815909185492</v>
+        <v>38.31815909185491</v>
       </c>
     </row>
     <row r="8661" spans="1:2">
@@ -69663,7 +69663,7 @@
         <v>8665</v>
       </c>
       <c r="B8665">
-        <v>51.56848689181166</v>
+        <v>51.56848689181165</v>
       </c>
     </row>
     <row r="8666" spans="1:2">
@@ -69823,7 +69823,7 @@
         <v>8685</v>
       </c>
       <c r="B8685">
-        <v>28.54066448582738</v>
+        <v>28.54066448582737</v>
       </c>
     </row>
     <row r="8686" spans="1:2">
@@ -69911,7 +69911,7 @@
         <v>8696</v>
       </c>
       <c r="B8696">
-        <v>59.97552270685101</v>
+        <v>59.975522706851</v>
       </c>
     </row>
     <row r="8697" spans="1:2">
@@ -69919,7 +69919,7 @@
         <v>8697</v>
       </c>
       <c r="B8697">
-        <v>52.85506875153497</v>
+        <v>52.85506875153496</v>
       </c>
     </row>
     <row r="8698" spans="1:2">
@@ -69959,7 +69959,7 @@
         <v>8702</v>
       </c>
       <c r="B8702">
-        <v>41.35466812342512</v>
+        <v>41.35466812342511</v>
       </c>
     </row>
     <row r="8703" spans="1:2">
@@ -69967,7 +69967,7 @@
         <v>8703</v>
       </c>
       <c r="B8703">
-        <v>40.36145037340182</v>
+        <v>40.36145037340181</v>
       </c>
     </row>
     <row r="8704" spans="1:2">
@@ -70095,7 +70095,7 @@
         <v>8719</v>
       </c>
       <c r="B8719">
-        <v>53.64225756137934</v>
+        <v>53.64225756137933</v>
       </c>
     </row>
     <row r="8720" spans="1:2">
@@ -70119,7 +70119,7 @@
         <v>8722</v>
       </c>
       <c r="B8722">
-        <v>63.24209250377037</v>
+        <v>63.24209250377036</v>
       </c>
     </row>
     <row r="8723" spans="1:2">
@@ -70127,7 +70127,7 @@
         <v>8723</v>
       </c>
       <c r="B8723">
-        <v>62.18205455693228</v>
+        <v>62.18205455693227</v>
       </c>
     </row>
     <row r="8724" spans="1:2">
@@ -70231,7 +70231,7 @@
         <v>8736</v>
       </c>
       <c r="B8736">
-        <v>70.34818597819201</v>
+        <v>70.34818597819199</v>
       </c>
     </row>
     <row r="8737" spans="1:2">
@@ -70327,7 +70327,7 @@
         <v>8748</v>
       </c>
       <c r="B8748">
-        <v>67.17891576610822</v>
+        <v>67.1789157661082</v>
       </c>
     </row>
     <row r="8749" spans="1:2">
@@ -70351,7 +70351,7 @@
         <v>8751</v>
       </c>
       <c r="B8751">
-        <v>67.54584070651222</v>
+        <v>67.54584070651221</v>
       </c>
     </row>
     <row r="8752" spans="1:2">
